--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783404A0-8140-E24F-BFB5-F44ECF6E122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7B7CB-1D89-3A42-A7D3-AC659E599487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>D1</t>
   </si>
@@ -300,9 +300,100 @@
     <t>Scene 1</t>
   </si>
   <si>
-    <t>1710 : il faut cliquer pour sortir son épée
-1863 : on arrive à la porte
-1823 : on quitte le pont-levis</t>
+    <t>Fin de vie : Dirk tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par les bestioles du pont-levis</t>
+  </si>
+  <si>
+    <t>Dirk revient à la vie</t>
+  </si>
+  <si>
+    <t>Scene 2</t>
+  </si>
+  <si>
+    <t>Dirk est mort et se transforme en squelette</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par les tentacules et disparaît par le haut</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est étouffé par les tentacules</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par les tentacules alors qu'il monte l'escalier</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par les tentacules alors qu'il s'approchait de la porte</t>
+  </si>
+  <si>
+    <t>Scene 3</t>
+  </si>
+  <si>
+    <t>Dirk affronte le monstre tentaculaire</t>
+  </si>
+  <si>
+    <t>Dirk affronte des serpents</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par un serpent au sol</t>
+  </si>
+  <si>
+    <t>Scene 4</t>
+  </si>
+  <si>
+    <t>Dirk entre dans le château</t>
+  </si>
+  <si>
+    <t>Dirk traverse dans la vide grâce à des lianes</t>
+  </si>
+  <si>
+    <t>Dirk tombe en arrière et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>La liane de Dirk prend feu et Dirk tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Scene 5</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk reçoit des coups de couteau dans le dos</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est attrapé par les serpents dans l'eau et se noie</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk meurt enseveli</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est tué par l'araignée</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est écrasé par les blocs de pierre</t>
+  </si>
+  <si>
+    <t>Scene 6</t>
+  </si>
+  <si>
+    <t>Dirk est sur la route des briques jaunes</t>
+  </si>
+  <si>
+    <t>Dirk est dans la salle avec la marmite</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk se fait gober par le blob crocodile</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est enveseli par le blob</t>
+  </si>
+  <si>
+    <t>Fin de vie : la sorcière de la marmite attrape Dirk</t>
+  </si>
+  <si>
+    <t>Scene 7</t>
+  </si>
+  <si>
+    <t>dernière frame</t>
   </si>
 </sst>
 </file>
@@ -338,11 +429,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,15 +1574,456 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1425</v>
       </c>
+      <c r="B59">
+        <v>2048</v>
+      </c>
       <c r="C59" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2049</v>
+      </c>
+      <c r="B60">
+        <v>2084</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2085</v>
+      </c>
+      <c r="B61">
+        <v>2132</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2133</v>
+      </c>
+      <c r="B62">
+        <v>2212</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2213</v>
+      </c>
+      <c r="B63">
+        <v>2296</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2297</v>
+      </c>
+      <c r="B64">
+        <v>2352</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2353</v>
+      </c>
+      <c r="B65">
+        <v>2728</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2729</v>
+      </c>
+      <c r="B66">
+        <v>2800</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2801</v>
+      </c>
+      <c r="B67">
+        <v>2848</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2849</v>
+      </c>
+      <c r="B68">
+        <v>2920</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2921</v>
+      </c>
+      <c r="B69">
+        <v>2956</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2957</v>
+      </c>
+      <c r="B70">
+        <v>3040</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3031</v>
+      </c>
+      <c r="B71">
+        <v>3096</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3097</v>
+      </c>
+      <c r="B72">
+        <v>3348</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3349</v>
+      </c>
+      <c r="B73">
+        <v>3420</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3421</v>
+      </c>
+      <c r="B74">
+        <v>3504</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3505</v>
+      </c>
+      <c r="B75">
+        <v>3560</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3561</v>
+      </c>
+      <c r="B76">
+        <v>3860</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3861</v>
+      </c>
+      <c r="B77">
+        <v>3924</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3925</v>
+      </c>
+      <c r="B78">
+        <v>3998</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3999</v>
+      </c>
+      <c r="B79">
+        <v>4082</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4083</v>
+      </c>
+      <c r="B80">
+        <v>4138</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4139</v>
+      </c>
+      <c r="B81">
+        <v>4638</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4639</v>
+      </c>
+      <c r="B82">
+        <v>4662</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4663</v>
+      </c>
+      <c r="B83">
+        <v>4710</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4711</v>
+      </c>
+      <c r="B84">
+        <v>4758</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4759</v>
+      </c>
+      <c r="B85">
+        <v>4838</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>4839</v>
+      </c>
+      <c r="B86">
+        <v>4874</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4875</v>
+      </c>
+      <c r="B87">
+        <v>4922</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4923</v>
+      </c>
+      <c r="B88">
+        <v>4982</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4983</v>
+      </c>
+      <c r="B89">
+        <v>5066</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5067</v>
+      </c>
+      <c r="B90">
+        <v>5122</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5123</v>
+      </c>
+      <c r="B91">
+        <v>5422</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5423</v>
+      </c>
+      <c r="B92">
+        <v>5458</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5459</v>
+      </c>
+      <c r="B93">
+        <v>5494</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5495</v>
+      </c>
+      <c r="B94">
+        <v>5542</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5543</v>
+      </c>
+      <c r="B95">
+        <v>5626</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5627</v>
+      </c>
+      <c r="B96">
+        <v>5682</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5683</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>31587</v>
+      </c>
+      <c r="D111" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7B7CB-1D89-3A42-A7D3-AC659E599487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F9BDE-EAA6-4B40-BA53-97852C26AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>D1</t>
   </si>
@@ -393,7 +393,64 @@
     <t>Scene 7</t>
   </si>
   <si>
-    <t>dernière frame</t>
+    <t>Dirk se bat contre des monstres violets, dans un escalier</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est tué par les monstres</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk reçoit une épée dans le dos</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est poussé dans le vide</t>
+  </si>
+  <si>
+    <t>Scene 8</t>
+  </si>
+  <si>
+    <t>Dirk est dans une salle mauve avec un trou, le sol se soulève</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk s'agrippe à la corde et meurt noyé</t>
+  </si>
+  <si>
+    <t>Scene 9</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est brûlé vif</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est mort transpercé par une épée</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est mort transpercé par un gourdin</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est mort transpercé par une enclume</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est transpercé par une lance</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est tué par le monstre en pierre</t>
+  </si>
+  <si>
+    <t>Scene 10</t>
+  </si>
+  <si>
+    <t>Dirk traverse un pont avec deux engrenages</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>22a</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>Dirk est dans une forge avec un monstre en pierre</t>
   </si>
 </sst>
 </file>
@@ -749,20 +806,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="169.33203125" customWidth="1"/>
+    <col min="4" max="4" width="162.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -775,8 +832,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>31587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>151</v>
       </c>
@@ -790,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>154</v>
       </c>
@@ -804,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>157</v>
       </c>
@@ -818,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>160</v>
       </c>
@@ -832,7 +892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>163</v>
       </c>
@@ -846,7 +906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>166</v>
       </c>
@@ -860,7 +920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>169</v>
       </c>
@@ -874,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>172</v>
       </c>
@@ -888,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>175</v>
       </c>
@@ -902,7 +962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>178</v>
       </c>
@@ -916,7 +976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>181</v>
       </c>
@@ -930,7 +990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>184</v>
       </c>
@@ -944,7 +1004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>187</v>
       </c>
@@ -958,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>190</v>
       </c>
@@ -972,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>193</v>
       </c>
@@ -1643,7 +1703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2353</v>
       </c>
@@ -1656,8 +1716,11 @@
       <c r="D65" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2729</v>
       </c>
@@ -1668,7 +1731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2801</v>
       </c>
@@ -1679,7 +1742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2849</v>
       </c>
@@ -1690,7 +1753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2921</v>
       </c>
@@ -1701,7 +1764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2957</v>
       </c>
@@ -1712,7 +1775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3031</v>
       </c>
@@ -1723,7 +1786,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3097</v>
       </c>
@@ -1736,8 +1799,11 @@
       <c r="D72" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3349</v>
       </c>
@@ -1748,7 +1814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3421</v>
       </c>
@@ -1759,7 +1825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3505</v>
       </c>
@@ -1770,7 +1836,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3561</v>
       </c>
@@ -1783,8 +1849,11 @@
       <c r="D76" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3861</v>
       </c>
@@ -1795,7 +1864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3925</v>
       </c>
@@ -1806,7 +1875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3999</v>
       </c>
@@ -1817,7 +1886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4083</v>
       </c>
@@ -1828,7 +1897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4139</v>
       </c>
@@ -1841,8 +1910,11 @@
       <c r="D81" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4639</v>
       </c>
@@ -1853,7 +1925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4663</v>
       </c>
@@ -1864,7 +1936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4711</v>
       </c>
@@ -1875,7 +1947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4759</v>
       </c>
@@ -1886,7 +1958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4839</v>
       </c>
@@ -1897,7 +1969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4875</v>
       </c>
@@ -1908,7 +1980,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4923</v>
       </c>
@@ -1919,7 +1991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4983</v>
       </c>
@@ -1930,7 +2002,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5067</v>
       </c>
@@ -1941,7 +2013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5123</v>
       </c>
@@ -1954,8 +2026,11 @@
       <c r="D91" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5423</v>
       </c>
@@ -1966,7 +2041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5459</v>
       </c>
@@ -1977,7 +2052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5495</v>
       </c>
@@ -1988,7 +2063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5543</v>
       </c>
@@ -1999,7 +2074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5627</v>
       </c>
@@ -2010,20 +2085,264 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5683</v>
       </c>
+      <c r="B97">
+        <v>5946</v>
+      </c>
       <c r="C97" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5947</v>
+      </c>
+      <c r="B98">
+        <v>6038</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6039</v>
+      </c>
+      <c r="B99">
+        <v>6090</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>6091</v>
+      </c>
+      <c r="B100">
+        <v>6198</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>6199</v>
+      </c>
+      <c r="B101">
+        <v>6282</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6283</v>
+      </c>
+      <c r="B102">
+        <v>6338</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6339</v>
+      </c>
+      <c r="B103">
+        <v>6646</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6647</v>
+      </c>
+      <c r="B104">
+        <v>6694</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6695</v>
+      </c>
+      <c r="B105">
+        <v>6730</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6731</v>
+      </c>
+      <c r="B106">
+        <v>6826</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>6827</v>
+      </c>
+      <c r="B107">
+        <v>6910</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>6911</v>
+      </c>
+      <c r="B108">
+        <v>6966</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6967</v>
+      </c>
+      <c r="B109">
+        <v>7488</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>7489</v>
+      </c>
+      <c r="B110">
+        <v>7524</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>7525</v>
+      </c>
       <c r="B111">
-        <v>31587</v>
+        <v>7548</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>7549</v>
+      </c>
+      <c r="B112">
+        <v>7596</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>7597</v>
+      </c>
+      <c r="B113">
+        <v>7648</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>7649</v>
+      </c>
+      <c r="B114">
+        <v>7672</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>7673</v>
+      </c>
+      <c r="B115">
+        <v>7744</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7745</v>
+      </c>
+      <c r="B116">
+        <v>7828</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>7829</v>
+      </c>
+      <c r="B117">
+        <v>7884</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>7885</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F9BDE-EAA6-4B40-BA53-97852C26AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97E120-2481-874F-BA88-B08C05443331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
   <si>
     <t>D1</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Dirk entre dans le château</t>
   </si>
   <si>
-    <t>Dirk traverse dans la vide grâce à des lianes</t>
-  </si>
-  <si>
     <t>Dirk tombe en arrière et tombe dans le vide</t>
   </si>
   <si>
@@ -451,6 +448,225 @@
   </si>
   <si>
     <t>Dirk est dans une forge avec un monstre en pierre</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk traverse un mur</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est désintégré par la lance</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est broyé par les tentacules</t>
+  </si>
+  <si>
+    <t>Dirk est dans la chambre qui bouge</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est aspiré et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Scene 11</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est écrasé par le mur qui se referme</t>
+  </si>
+  <si>
+    <t>Dirk arrive dans la chambre</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk meurt par asphyxie</t>
+  </si>
+  <si>
+    <t>Scene 12</t>
+  </si>
+  <si>
+    <t>Dirk est dans la chambre de la cheminée</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk meurt brûlé</t>
+  </si>
+  <si>
+    <t>Scene 13</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>Dirk monte à cheval et zigzague entre les tours</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk tape dans la première tour et meurt</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk rentre dans un mur et se désintègre</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est brûlé sur son cheval</t>
+  </si>
+  <si>
+    <t>Scene 14</t>
+  </si>
+  <si>
+    <t>Dirk arrive dans la chapelle</t>
+  </si>
+  <si>
+    <t>24a</t>
+  </si>
+  <si>
+    <t>unused?</t>
+  </si>
+  <si>
+    <t>Dirk est rentré dans un trou et se retrouve derrière</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk a posé ses pieds sur une dalle électrisée et meurt</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk meurt</t>
+  </si>
+  <si>
+    <t>Dirk revient à la vie (préparation de la scène suivante, pourrait être considérée comme le début de chaque scène)</t>
+  </si>
+  <si>
+    <t>Scene 15</t>
+  </si>
+  <si>
+    <t>Dirk entre dans le mausolée</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk sort son épée trop tard</t>
+  </si>
+  <si>
+    <t>Fin de vie : la main en os tue Dirk</t>
+  </si>
+  <si>
+    <t>Fin de vie : la boue tue Dirk</t>
+  </si>
+  <si>
+    <t>Fin de vie : les esprits de la crypte tuent Dirk</t>
+  </si>
+  <si>
+    <t>Scene 16</t>
+  </si>
+  <si>
+    <t>Dirk affronte des chauve-souris</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est tué par les chauve-souris</t>
+  </si>
+  <si>
+    <t>Scene 17</t>
+  </si>
+  <si>
+    <t>Dirk traverse des lianes en feu</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Scene 18</t>
+  </si>
+  <si>
+    <t>22b</t>
+  </si>
+  <si>
+    <t>Scene 19</t>
+  </si>
+  <si>
+    <t>Dirk affronte la chauve-souris géante</t>
+  </si>
+  <si>
+    <t>Fin de vie : la chauve-souris géante tue Dirk</t>
+  </si>
+  <si>
+    <t>Fin de vie : les chauve-souris tuent Dirk</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est poursuivi par les chauve-souris et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Scene 20</t>
+  </si>
+  <si>
+    <t>Dirk et les élévateurs (il va falloir approfondir la scène)</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk s'écrase au sol</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk rate son saut et s'écrase</t>
+  </si>
+  <si>
+    <t>Dirk s'agrippe aux marches en bois (il faut déterminer ce qu'il se passe ensuite)</t>
+  </si>
+  <si>
+    <t>Dirk finit le niveau avec succès</t>
+  </si>
+  <si>
+    <t>Scene 21</t>
+  </si>
+  <si>
+    <t>14b</t>
+  </si>
+  <si>
+    <t>Frame len</t>
+  </si>
+  <si>
+    <t>Scene 22</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Scene 23</t>
+  </si>
+  <si>
+    <t>Dirk et le pot d'or</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est hypnotisé</t>
+  </si>
+  <si>
+    <t>Fin de vie : le lézard assomme Dirk</t>
+  </si>
+  <si>
+    <t>Scene 24</t>
+  </si>
+  <si>
+    <t>Wizard's kitchen "drink me"</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk boit la potion et meurt</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>Scene 25</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>Scene 27</t>
+  </si>
+  <si>
+    <t>Tilting room</t>
+  </si>
+  <si>
+    <t>Scene 26</t>
+  </si>
+  <si>
+    <t>Fin de vie : Dirk est emprisonné après avoir sauté</t>
   </si>
 </sst>
 </file>
@@ -806,20 +1022,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="162.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="162.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -827,1522 +1043,4396 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>31587</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>151</v>
       </c>
       <c r="B2">
         <v>153</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <f>B2-A2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>154</v>
       </c>
       <c r="B3">
         <v>156</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>157</v>
       </c>
       <c r="B4">
         <v>159</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>160</v>
       </c>
       <c r="B5">
         <v>162</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>163</v>
       </c>
       <c r="B6">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>166</v>
       </c>
       <c r="B7">
         <v>168</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>169</v>
       </c>
       <c r="B8">
         <v>171</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>172</v>
       </c>
       <c r="B9">
         <v>174</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>175</v>
       </c>
       <c r="B10">
         <v>177</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>178</v>
       </c>
       <c r="B11">
         <v>180</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>181</v>
       </c>
       <c r="B12">
         <v>183</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>184</v>
       </c>
       <c r="B13">
         <v>186</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>187</v>
       </c>
       <c r="B14">
         <v>189</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>190</v>
       </c>
       <c r="B15">
         <v>192</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>193</v>
       </c>
       <c r="B16">
         <v>195</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>196</v>
       </c>
       <c r="B17">
         <v>198</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>199</v>
       </c>
       <c r="B18">
         <v>201</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202</v>
       </c>
       <c r="B19">
         <v>204</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>205</v>
       </c>
       <c r="B20">
         <v>207</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>208</v>
       </c>
       <c r="B21">
         <v>210</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>211</v>
       </c>
       <c r="B22">
         <v>213</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>214</v>
       </c>
       <c r="B23">
         <v>216</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>217</v>
       </c>
       <c r="B24">
         <v>219</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>220</v>
       </c>
       <c r="B25">
         <v>222</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>223</v>
       </c>
       <c r="B26">
         <v>225</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>226</v>
       </c>
       <c r="B27">
         <v>228</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>229</v>
       </c>
       <c r="B28">
         <v>231</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>232</v>
       </c>
       <c r="B29">
         <v>234</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>235</v>
       </c>
       <c r="B30">
         <v>237</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>238</v>
       </c>
       <c r="B31">
         <v>240</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>241</v>
       </c>
       <c r="B32">
         <v>243</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>244</v>
       </c>
       <c r="B33">
         <v>246</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>247</v>
       </c>
       <c r="B34">
         <v>249</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>250</v>
       </c>
       <c r="B35">
         <v>252</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>253</v>
       </c>
       <c r="B36">
         <v>256</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>257</v>
       </c>
       <c r="B37">
         <v>259</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>260</v>
       </c>
       <c r="B38">
         <v>262</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>263</v>
       </c>
       <c r="B39">
         <v>265</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>266</v>
       </c>
       <c r="B40">
         <v>268</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>269</v>
       </c>
       <c r="B41">
         <v>271</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>272</v>
       </c>
       <c r="B42">
         <v>274</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>275</v>
       </c>
       <c r="B43">
         <v>277</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>278</v>
       </c>
       <c r="B44">
         <v>280</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>281</v>
       </c>
       <c r="B45">
         <v>283</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>284</v>
       </c>
       <c r="B46">
         <v>286</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>287</v>
       </c>
       <c r="B47">
         <v>289</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>290</v>
       </c>
       <c r="B48">
         <v>292</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>293</v>
       </c>
       <c r="B49">
         <v>295</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>296</v>
       </c>
       <c r="B50">
         <v>298</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>299</v>
       </c>
       <c r="B51">
         <v>301</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>302</v>
       </c>
       <c r="B52">
         <v>304</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>305</v>
       </c>
       <c r="B53">
         <v>307</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>308</v>
       </c>
       <c r="B54">
         <v>310</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>311</v>
       </c>
       <c r="B55">
         <v>313</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>314</v>
       </c>
       <c r="B56">
         <v>316</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>323</v>
       </c>
       <c r="B57">
         <v>1359</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+      <c r="D57" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1367</v>
       </c>
       <c r="B58">
         <v>1422</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1425</v>
       </c>
       <c r="B59">
         <v>2048</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>623</v>
+      </c>
+      <c r="D59" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2049</v>
       </c>
       <c r="B60">
         <v>2084</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2085</v>
       </c>
       <c r="B61">
         <v>2132</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2133</v>
       </c>
       <c r="B62">
         <v>2212</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2213</v>
       </c>
       <c r="B63">
         <v>2296</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2297</v>
       </c>
       <c r="B64">
         <v>2352</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2353</v>
       </c>
       <c r="B65">
         <v>2728</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="D65" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2729</v>
       </c>
       <c r="B66">
         <v>2800</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2801</v>
       </c>
       <c r="B67">
         <v>2848</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">B67-A67</f>
+        <v>47</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2849</v>
       </c>
       <c r="B68">
         <v>2920</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2921</v>
       </c>
       <c r="B69">
         <v>2956</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2957</v>
       </c>
       <c r="B70">
         <v>3040</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3031</v>
       </c>
       <c r="B71">
         <v>3096</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3097</v>
       </c>
       <c r="B72">
         <v>3348</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="D72" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3349</v>
       </c>
       <c r="B73">
         <v>3420</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3421</v>
       </c>
       <c r="B74">
         <v>3504</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3505</v>
       </c>
       <c r="B75">
         <v>3560</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3561</v>
       </c>
       <c r="B76">
         <v>3860</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="D76" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3861</v>
       </c>
       <c r="B77">
         <v>3924</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3925</v>
       </c>
       <c r="B78">
         <v>3998</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3999</v>
       </c>
       <c r="B79">
         <v>4082</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4083</v>
       </c>
       <c r="B80">
         <v>4138</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4139</v>
       </c>
       <c r="B81">
         <v>4638</v>
       </c>
-      <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="D81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4639</v>
       </c>
       <c r="B82">
         <v>4662</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <f>B82-A82</f>
+        <v>23</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4663</v>
       </c>
       <c r="B83">
         <v>4710</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:D90" si="2">B83-A83</f>
+        <v>47</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4711</v>
       </c>
       <c r="B84">
         <v>4758</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4759</v>
       </c>
       <c r="B85">
         <v>4838</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4839</v>
       </c>
       <c r="B86">
         <v>4874</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4875</v>
       </c>
       <c r="B87">
         <v>4922</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4923</v>
       </c>
       <c r="B88">
         <v>4982</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4983</v>
       </c>
       <c r="B89">
         <v>5066</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5067</v>
       </c>
       <c r="B90">
         <v>5122</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5123</v>
       </c>
       <c r="B91">
         <v>5422</v>
       </c>
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5423</v>
       </c>
       <c r="B92">
         <v>5458</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5459</v>
       </c>
       <c r="B93">
         <v>5494</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5495</v>
       </c>
       <c r="B94">
         <v>5542</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5543</v>
       </c>
       <c r="B95">
         <v>5626</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5627</v>
       </c>
       <c r="B96">
         <v>5682</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5683</v>
       </c>
       <c r="B97">
         <v>5946</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E97">
+      <c r="F97">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5947</v>
       </c>
       <c r="B98">
         <v>6038</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6039</v>
       </c>
       <c r="B99">
         <v>6090</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6091</v>
       </c>
       <c r="B100">
         <v>6198</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6199</v>
       </c>
       <c r="B101">
         <v>6282</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6283</v>
       </c>
       <c r="B102">
         <v>6338</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6339</v>
       </c>
       <c r="B103">
         <v>6646</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="D103" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E103">
+      <c r="F103">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6647</v>
       </c>
       <c r="B104">
         <v>6694</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6695</v>
       </c>
       <c r="B105">
         <v>6730</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6731</v>
       </c>
       <c r="B106">
         <v>6826</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6827</v>
       </c>
       <c r="B107">
         <v>6910</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6911</v>
       </c>
       <c r="B108">
         <v>6966</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6967</v>
       </c>
       <c r="B109">
         <v>7488</v>
       </c>
-      <c r="C109" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="D109">
+        <f>B109-A109</f>
+        <v>521</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7489</v>
       </c>
       <c r="B110">
         <v>7524</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ref="D110:D117" si="3">B110-A110</f>
+        <v>35</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>7525</v>
       </c>
       <c r="B111">
         <v>7548</v>
       </c>
-      <c r="D111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7549</v>
       </c>
       <c r="B112">
         <v>7596</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>7597</v>
       </c>
       <c r="B113">
         <v>7648</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7649</v>
       </c>
       <c r="B114">
         <v>7672</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7673</v>
       </c>
       <c r="B115">
         <v>7744</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7745</v>
       </c>
       <c r="B116">
         <v>7828</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7829</v>
       </c>
       <c r="B117">
         <v>7884</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7885</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118">
+        <v>8394</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>127</v>
+      <c r="F118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8395</v>
+      </c>
+      <c r="B119">
+        <v>8448</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8449</v>
+      </c>
+      <c r="B120">
+        <v>8532</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>8533</v>
+      </c>
+      <c r="B121">
+        <v>8568</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>8569</v>
+      </c>
+      <c r="B122">
+        <v>8652</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>8653</v>
+      </c>
+      <c r="B123">
+        <v>8708</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>8709</v>
+      </c>
+      <c r="B124">
+        <v>8924</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="D124" t="s">
+        <v>125</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>8925</v>
+      </c>
+      <c r="B125">
+        <v>9008</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>9009</v>
+      </c>
+      <c r="B126">
+        <v>9092</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>9093</v>
+      </c>
+      <c r="B127">
+        <v>9148</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>9149</v>
+      </c>
+      <c r="B128">
+        <v>9280</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="D128" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>9281</v>
+      </c>
+      <c r="B129">
+        <v>9328</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>9329</v>
+      </c>
+      <c r="B130">
+        <v>9388</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>9389</v>
+      </c>
+      <c r="B131">
+        <v>9472</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="4">B131-A131</f>
+        <v>83</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>9473</v>
+      </c>
+      <c r="B132">
+        <v>9528</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>9529</v>
+      </c>
+      <c r="B133">
+        <v>9820</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="D133" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>9821</v>
+      </c>
+      <c r="B134">
+        <v>9880</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>9881</v>
+      </c>
+      <c r="B135">
+        <v>9964</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9965</v>
+      </c>
+      <c r="B136">
+        <v>10020</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10021</v>
+      </c>
+      <c r="B137">
+        <v>10452</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>431</v>
+      </c>
+      <c r="D137" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F137" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>10453</v>
+      </c>
+      <c r="B138">
+        <v>10500</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>10501</v>
+      </c>
+      <c r="B139">
+        <v>10564</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>10565</v>
+      </c>
+      <c r="B140">
+        <v>10600</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>10601</v>
+      </c>
+      <c r="B141">
+        <v>10684</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>10685</v>
+      </c>
+      <c r="B142">
+        <v>10740</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>10741</v>
+      </c>
+      <c r="B143">
+        <v>11220</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>479</v>
+      </c>
+      <c r="D143" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F143" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>11221</v>
+      </c>
+      <c r="B144">
+        <v>11268</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>11269</v>
+      </c>
+      <c r="B145">
+        <v>11316</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>11317</v>
+      </c>
+      <c r="B146">
+        <v>11348</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>11349</v>
+      </c>
+      <c r="B147">
+        <v>11432</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>11433</v>
+      </c>
+      <c r="B148">
+        <v>11488</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>11489</v>
+      </c>
+      <c r="B149">
+        <v>11880</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>391</v>
+      </c>
+      <c r="D149" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>11881</v>
+      </c>
+      <c r="B150">
+        <v>11916</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>11917</v>
+      </c>
+      <c r="B151">
+        <v>11940</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>11941</v>
+      </c>
+      <c r="B152">
+        <v>11976</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>11977</v>
+      </c>
+      <c r="B153">
+        <v>12048</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>12049</v>
+      </c>
+      <c r="B154">
+        <v>12132</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>12133</v>
+      </c>
+      <c r="B155">
+        <v>12188</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>12189</v>
+      </c>
+      <c r="B156">
+        <v>12476</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="D156" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F156">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>12477</v>
+      </c>
+      <c r="B157">
+        <v>12536</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>12537</v>
+      </c>
+      <c r="B158">
+        <v>12584</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>12585</v>
+      </c>
+      <c r="B159">
+        <v>12668</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>12669</v>
+      </c>
+      <c r="B160">
+        <v>12724</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>12725</v>
+      </c>
+      <c r="B161">
+        <v>13024</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="D161" t="s">
+        <v>168</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>13025</v>
+      </c>
+      <c r="B162">
+        <v>13088</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>13089</v>
+      </c>
+      <c r="B163">
+        <v>13162</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>13163</v>
+      </c>
+      <c r="B164">
+        <v>13246</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>13247</v>
+      </c>
+      <c r="B165">
+        <v>13302</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>13303</v>
+      </c>
+      <c r="B166">
+        <v>13802</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>499</v>
+      </c>
+      <c r="D166" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f>B166+1</f>
+        <v>13803</v>
+      </c>
+      <c r="B167">
+        <v>13826</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" ref="A168:A231" si="5">B167+1</f>
+        <v>13827</v>
+      </c>
+      <c r="B168">
+        <v>13874</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="5"/>
+        <v>13875</v>
+      </c>
+      <c r="B169">
+        <v>13922</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="5"/>
+        <v>13923</v>
+      </c>
+      <c r="B170">
+        <v>14002</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="5"/>
+        <v>14003</v>
+      </c>
+      <c r="B171">
+        <v>14038</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="5"/>
+        <v>14039</v>
+      </c>
+      <c r="B172">
+        <v>14086</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="5"/>
+        <v>14087</v>
+      </c>
+      <c r="B173">
+        <v>14146</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="5"/>
+        <v>14147</v>
+      </c>
+      <c r="B174">
+        <v>14230</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="5"/>
+        <v>14231</v>
+      </c>
+      <c r="B175">
+        <v>14286</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="5"/>
+        <v>14287</v>
+      </c>
+      <c r="B176">
+        <v>14574</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="D176" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F176">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="5"/>
+        <v>14575</v>
+      </c>
+      <c r="B177">
+        <v>14610</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="5"/>
+        <v>14611</v>
+      </c>
+      <c r="B178">
+        <v>14658</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="5"/>
+        <v>14659</v>
+      </c>
+      <c r="B179">
+        <v>14706</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="5"/>
+        <v>14707</v>
+      </c>
+      <c r="B180">
+        <v>14790</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="5"/>
+        <v>14791</v>
+      </c>
+      <c r="B181">
+        <v>14846</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="5"/>
+        <v>14847</v>
+      </c>
+      <c r="B182">
+        <v>15225</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="D182" t="s">
+        <v>178</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="5"/>
+        <v>15226</v>
+      </c>
+      <c r="B183">
+        <v>15305</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="5"/>
+        <v>15306</v>
+      </c>
+      <c r="B184">
+        <v>15365</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="5"/>
+        <v>15366</v>
+      </c>
+      <c r="B185">
+        <v>15437</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="5"/>
+        <v>15438</v>
+      </c>
+      <c r="B186">
+        <v>15485</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="5"/>
+        <v>15486</v>
+      </c>
+      <c r="B187">
+        <v>15569</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="5"/>
+        <v>15570</v>
+      </c>
+      <c r="B188">
+        <v>15625</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="5"/>
+        <v>15626</v>
+      </c>
+      <c r="B189">
+        <v>16147</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="4"/>
+        <v>521</v>
+      </c>
+      <c r="D189" t="s">
+        <v>185</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="5"/>
+        <v>16148</v>
+      </c>
+      <c r="B190">
+        <v>16183</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="D190">
+        <v>35</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="5"/>
+        <v>16184</v>
+      </c>
+      <c r="B191">
+        <v>16207</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D191">
+        <v>23</v>
+      </c>
+      <c r="E191" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="5"/>
+        <v>16208</v>
+      </c>
+      <c r="B192">
+        <v>16255</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="D192">
+        <v>47</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="5"/>
+        <v>16256</v>
+      </c>
+      <c r="B193">
+        <v>16307</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D193">
+        <v>51</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="5"/>
+        <v>16308</v>
+      </c>
+      <c r="B194">
+        <v>16331</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D194">
+        <v>23</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="5"/>
+        <v>16332</v>
+      </c>
+      <c r="B195">
+        <v>16403</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C235" si="6">B195-A195</f>
+        <v>71</v>
+      </c>
+      <c r="D195">
+        <v>71</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="5"/>
+        <v>16404</v>
+      </c>
+      <c r="B196">
+        <v>16487</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D196">
+        <v>83</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="5"/>
+        <v>16488</v>
+      </c>
+      <c r="B197">
+        <v>16543</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D197">
+        <v>55</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" si="5"/>
+        <v>16544</v>
+      </c>
+      <c r="B198">
+        <v>16975</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="6"/>
+        <v>431</v>
+      </c>
+      <c r="D198" t="s">
+        <v>188</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F198" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="5"/>
+        <v>16976</v>
+      </c>
+      <c r="B199">
+        <v>17023</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="5"/>
+        <v>17024</v>
+      </c>
+      <c r="B200">
+        <v>17087</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="5"/>
+        <v>17088</v>
+      </c>
+      <c r="B201">
+        <v>17123</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="5"/>
+        <v>17124</v>
+      </c>
+      <c r="B202">
+        <v>17207</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="5"/>
+        <v>17208</v>
+      </c>
+      <c r="B203">
+        <v>17263</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="5"/>
+        <v>17264</v>
+      </c>
+      <c r="B204">
+        <v>18035</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="6"/>
+        <v>771</v>
+      </c>
+      <c r="D204" t="s">
+        <v>190</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="5"/>
+        <v>18036</v>
+      </c>
+      <c r="B205">
+        <v>18059</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="5"/>
+        <v>18060</v>
+      </c>
+      <c r="B206">
+        <v>18141</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="5"/>
+        <v>18142</v>
+      </c>
+      <c r="B207">
+        <v>18225</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="5"/>
+        <v>18226</v>
+      </c>
+      <c r="B208">
+        <v>18281</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="5"/>
+        <v>18282</v>
+      </c>
+      <c r="B209">
+        <v>18377</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D209" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="5"/>
+        <v>18378</v>
+      </c>
+      <c r="B210">
+        <v>18485</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="5"/>
+        <v>18486</v>
+      </c>
+      <c r="B211">
+        <v>18521</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="5"/>
+        <v>18522</v>
+      </c>
+      <c r="B212">
+        <v>18605</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="5"/>
+        <v>18606</v>
+      </c>
+      <c r="B213">
+        <v>18662</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="5"/>
+        <v>18663</v>
+      </c>
+      <c r="B214">
+        <v>19053</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F214" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="5"/>
+        <v>19054</v>
+      </c>
+      <c r="B215">
+        <v>19089</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="5"/>
+        <v>19090</v>
+      </c>
+      <c r="B216">
+        <v>19113</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="5"/>
+        <v>19114</v>
+      </c>
+      <c r="B217">
+        <v>19149</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="5"/>
+        <v>19150</v>
+      </c>
+      <c r="B218">
+        <v>19221</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="5"/>
+        <v>19222</v>
+      </c>
+      <c r="B219">
+        <v>19305</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="5"/>
+        <v>19306</v>
+      </c>
+      <c r="B220">
+        <v>19361</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="5"/>
+        <v>19362</v>
+      </c>
+      <c r="B221">
+        <v>19871</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="6"/>
+        <v>509</v>
+      </c>
+      <c r="D221" t="s">
+        <v>198</v>
+      </c>
+      <c r="E221" t="s">
+        <v>126</v>
+      </c>
+      <c r="F221" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="5"/>
+        <v>19872</v>
+      </c>
+      <c r="B222">
+        <v>19925</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="E222" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="5"/>
+        <v>19926</v>
+      </c>
+      <c r="B223">
+        <v>20009</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E223" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="5"/>
+        <v>20010</v>
+      </c>
+      <c r="B224">
+        <v>20045</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E224" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="5"/>
+        <v>20046</v>
+      </c>
+      <c r="B225">
+        <v>20129</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E225" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="5"/>
+        <v>20130</v>
+      </c>
+      <c r="B226">
+        <v>20185</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E226" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="5"/>
+        <v>20186</v>
+      </c>
+      <c r="B227">
+        <v>20383</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="6"/>
+        <v>197</v>
+      </c>
+      <c r="D227" t="s">
+        <v>202</v>
+      </c>
+      <c r="E227" t="s">
+        <v>201</v>
+      </c>
+      <c r="F227">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="5"/>
+        <v>20384</v>
+      </c>
+      <c r="B228">
+        <v>20449</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E228" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="5"/>
+        <v>20450</v>
+      </c>
+      <c r="B229">
+        <v>20485</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E229" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="5"/>
+        <v>20486</v>
+      </c>
+      <c r="B230">
+        <v>20535</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="E230" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="5"/>
+        <v>20536</v>
+      </c>
+      <c r="B231">
+        <v>20617</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E231" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" ref="A232:A295" si="7">B231+1</f>
+        <v>20618</v>
+      </c>
+      <c r="B232">
+        <v>20673</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E232" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="7"/>
+        <v>20674</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="6"/>
+        <v>-20674</v>
+      </c>
+      <c r="D233" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" ref="A296:A299" si="8">B295+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97E120-2481-874F-BA88-B08C05443331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25835-8CA1-C84E-95A2-79BFF5BCB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$306</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,19 +38,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="218">
   <si>
     <t>D1</t>
   </si>
   <si>
     <t>Begin diagnostics
 RAM test in progress</t>
-  </si>
-  <si>
-    <t>Frame in</t>
-  </si>
-  <si>
-    <t>Frame out</t>
   </si>
   <si>
     <t>Name</t>
@@ -297,147 +294,12 @@
     <t>The complete GAME introduction</t>
   </si>
   <si>
-    <t>Scene 1</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk tombe dans le vide</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par les bestioles du pont-levis</t>
-  </si>
-  <si>
-    <t>Dirk revient à la vie</t>
-  </si>
-  <si>
-    <t>Scene 2</t>
-  </si>
-  <si>
-    <t>Dirk est mort et se transforme en squelette</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par les tentacules et disparaît par le haut</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est étouffé par les tentacules</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par les tentacules alors qu'il monte l'escalier</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par les tentacules alors qu'il s'approchait de la porte</t>
-  </si>
-  <si>
-    <t>Scene 3</t>
-  </si>
-  <si>
-    <t>Dirk affronte le monstre tentaculaire</t>
-  </si>
-  <si>
-    <t>Dirk affronte des serpents</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par un serpent au sol</t>
-  </si>
-  <si>
-    <t>Scene 4</t>
-  </si>
-  <si>
-    <t>Dirk entre dans le château</t>
-  </si>
-  <si>
     <t>Dirk tombe en arrière et tombe dans le vide</t>
   </si>
   <si>
     <t>La liane de Dirk prend feu et Dirk tombe dans le vide</t>
   </si>
   <si>
-    <t>Scene 5</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk reçoit des coups de couteau dans le dos</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est attrapé par les serpents dans l'eau et se noie</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk meurt enseveli</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est tué par l'araignée</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est écrasé par les blocs de pierre</t>
-  </si>
-  <si>
-    <t>Scene 6</t>
-  </si>
-  <si>
-    <t>Dirk est sur la route des briques jaunes</t>
-  </si>
-  <si>
-    <t>Dirk est dans la salle avec la marmite</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk se fait gober par le blob crocodile</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est enveseli par le blob</t>
-  </si>
-  <si>
-    <t>Fin de vie : la sorcière de la marmite attrape Dirk</t>
-  </si>
-  <si>
-    <t>Scene 7</t>
-  </si>
-  <si>
-    <t>Dirk se bat contre des monstres violets, dans un escalier</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est tué par les monstres</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk reçoit une épée dans le dos</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est poussé dans le vide</t>
-  </si>
-  <si>
-    <t>Scene 8</t>
-  </si>
-  <si>
-    <t>Dirk est dans une salle mauve avec un trou, le sol se soulève</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk s'agrippe à la corde et meurt noyé</t>
-  </si>
-  <si>
-    <t>Scene 9</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est brûlé vif</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est mort transpercé par une épée</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est mort transpercé par un gourdin</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est mort transpercé par une enclume</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est transpercé par une lance</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est tué par le monstre en pierre</t>
-  </si>
-  <si>
-    <t>Scene 10</t>
-  </si>
-  <si>
-    <t>Dirk traverse un pont avec deux engrenages</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -447,72 +309,12 @@
     <t>14a</t>
   </si>
   <si>
-    <t>Dirk est dans une forge avec un monstre en pierre</t>
-  </si>
-  <si>
     <t>12a</t>
   </si>
   <si>
-    <t>Fin de vie : Dirk traverse un mur</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est désintégré par la lance</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est broyé par les tentacules</t>
-  </si>
-  <si>
-    <t>Dirk est dans la chambre qui bouge</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est aspiré et tombe dans le vide</t>
-  </si>
-  <si>
-    <t>Scene 11</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est écrasé par le mur qui se referme</t>
-  </si>
-  <si>
-    <t>Dirk arrive dans la chambre</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk meurt par asphyxie</t>
-  </si>
-  <si>
-    <t>Scene 12</t>
-  </si>
-  <si>
-    <t>Dirk est dans la chambre de la cheminée</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk meurt brûlé</t>
-  </si>
-  <si>
-    <t>Scene 13</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
-    <t>Dirk monte à cheval et zigzague entre les tours</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk tape dans la première tour et meurt</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk rentre dans un mur et se désintègre</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est brûlé sur son cheval</t>
-  </si>
-  <si>
-    <t>Scene 14</t>
-  </si>
-  <si>
-    <t>Dirk arrive dans la chapelle</t>
-  </si>
-  <si>
     <t>24a</t>
   </si>
   <si>
@@ -522,151 +324,394 @@
     <t>Dirk est rentré dans un trou et se retrouve derrière</t>
   </si>
   <si>
-    <t>Fin de vie : Dirk a posé ses pieds sur une dalle électrisée et meurt</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk meurt</t>
-  </si>
-  <si>
-    <t>Dirk revient à la vie (préparation de la scène suivante, pourrait être considérée comme le début de chaque scène)</t>
-  </si>
-  <si>
-    <t>Scene 15</t>
-  </si>
-  <si>
-    <t>Dirk entre dans le mausolée</t>
-  </si>
-  <si>
     <t>5a</t>
   </si>
   <si>
-    <t>Fin de vie : Dirk sort son épée trop tard</t>
-  </si>
-  <si>
-    <t>Fin de vie : la main en os tue Dirk</t>
-  </si>
-  <si>
-    <t>Fin de vie : la boue tue Dirk</t>
-  </si>
-  <si>
-    <t>Fin de vie : les esprits de la crypte tuent Dirk</t>
-  </si>
-  <si>
-    <t>Scene 16</t>
-  </si>
-  <si>
-    <t>Dirk affronte des chauve-souris</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est tué par les chauve-souris</t>
-  </si>
-  <si>
-    <t>Scene 17</t>
-  </si>
-  <si>
-    <t>Dirk traverse des lianes en feu</t>
-  </si>
-  <si>
     <t>1b</t>
   </si>
   <si>
-    <t>Scene 18</t>
-  </si>
-  <si>
     <t>22b</t>
   </si>
   <si>
-    <t>Scene 19</t>
-  </si>
-  <si>
-    <t>Dirk affronte la chauve-souris géante</t>
-  </si>
-  <si>
-    <t>Fin de vie : la chauve-souris géante tue Dirk</t>
-  </si>
-  <si>
-    <t>Fin de vie : les chauve-souris tuent Dirk</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est poursuivi par les chauve-souris et tombe dans le vide</t>
-  </si>
-  <si>
-    <t>Scene 20</t>
-  </si>
-  <si>
-    <t>Dirk et les élévateurs (il va falloir approfondir la scène)</t>
-  </si>
-  <si>
     <t>7a</t>
   </si>
   <si>
-    <t>Fin de vie : Dirk s'écrase au sol</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk rate son saut et s'écrase</t>
-  </si>
-  <si>
     <t>Dirk s'agrippe aux marches en bois (il faut déterminer ce qu'il se passe ensuite)</t>
   </si>
   <si>
     <t>Dirk finit le niveau avec succès</t>
   </si>
   <si>
-    <t>Scene 21</t>
-  </si>
-  <si>
     <t>14b</t>
   </si>
   <si>
-    <t>Frame len</t>
-  </si>
-  <si>
-    <t>Scene 22</t>
-  </si>
-  <si>
     <t>3b</t>
   </si>
   <si>
-    <t>Scene 23</t>
-  </si>
-  <si>
-    <t>Dirk et le pot d'or</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est hypnotisé</t>
-  </si>
-  <si>
-    <t>Fin de vie : le lézard assomme Dirk</t>
-  </si>
-  <si>
-    <t>Scene 24</t>
-  </si>
-  <si>
     <t>Wizard's kitchen "drink me"</t>
   </si>
   <si>
-    <t>Fin de vie : Dirk boit la potion et meurt</t>
-  </si>
-  <si>
     <t>5b</t>
   </si>
   <si>
-    <t>Scene 25</t>
-  </si>
-  <si>
     <t>12b</t>
   </si>
   <si>
-    <t>Scene 27</t>
-  </si>
-  <si>
     <t>Tilting room</t>
   </si>
   <si>
-    <t>Scene 26</t>
-  </si>
-  <si>
-    <t>Fin de vie : Dirk est emprisonné après avoir sauté</t>
+    <t>Throne room</t>
+  </si>
+  <si>
+    <t>24b</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Mudmen</t>
+  </si>
+  <si>
+    <t>Knight &amp; Light</t>
+  </si>
+  <si>
+    <t>Boulder Trench</t>
+  </si>
+  <si>
+    <t>Three caves</t>
+  </si>
+  <si>
+    <t>Dragon's Lair</t>
+  </si>
+  <si>
+    <t>&lt;no image&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mire de couleur&gt;</t>
+  </si>
+  <si>
+    <t>&lt;quadrillage&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fin du disque&gt;</t>
+  </si>
+  <si>
+    <t>Chapel (reversed)</t>
+  </si>
+  <si>
+    <t>Socker Boppers (Grim Reaper) (reversed)</t>
+  </si>
+  <si>
+    <t>Mausoleum (Crypt Creeps) (reversed)</t>
+  </si>
+  <si>
+    <t>Pot of Gold (Lizard King)</t>
+  </si>
+  <si>
+    <t>Flying Barding (reversed)</t>
+  </si>
+  <si>
+    <t>Forge (Smithee) (reversed)</t>
+  </si>
+  <si>
+    <t>Elevator Floor (3 levels)</t>
+  </si>
+  <si>
+    <t>Tentacles &amp; Halberd</t>
+  </si>
+  <si>
+    <t>Fire Pit (ropes)</t>
+  </si>
+  <si>
+    <t>Mist Room (snakes)</t>
+  </si>
+  <si>
+    <t>Yellow Brick Road (pool of water / spider)</t>
+  </si>
+  <si>
+    <t>Wizard's Chamber (Acid Creature / Cauldron Wizard)</t>
+  </si>
+  <si>
+    <t>Spiral Staircase (Giddy Goons)</t>
+  </si>
+  <si>
+    <t>YMCA Room (flattening stairs)</t>
+  </si>
+  <si>
+    <t>Forge (Smithee)</t>
+  </si>
+  <si>
+    <t>Socker Boppers (Grim Reaper)</t>
+  </si>
+  <si>
+    <t>Breathing Door (wind room)</t>
+  </si>
+  <si>
+    <t>Bower (bedroom / closing wall)</t>
+  </si>
+  <si>
+    <t>Fire Room (lightning / bench over exit)</t>
+  </si>
+  <si>
+    <t>Flying Barding</t>
+  </si>
+  <si>
+    <t>Chapel (Robot Knight / checkered floor)</t>
+  </si>
+  <si>
+    <t>Mausoleum (Crypt Creeps)</t>
+  </si>
+  <si>
+    <t>Catwalk (bats)</t>
+  </si>
+  <si>
+    <t>Fire Pit (ropes) (reversed)</t>
+  </si>
+  <si>
+    <t>Yellow Brick Road (pool of water / spider) (reversed)</t>
+  </si>
+  <si>
+    <t>Giant Bat</t>
+  </si>
+  <si>
+    <t>Scene index</t>
+  </si>
+  <si>
+    <t>Nb frames</t>
+  </si>
+  <si>
+    <t>First frame</t>
+  </si>
+  <si>
+    <t>Last frame</t>
+  </si>
+  <si>
+    <t>Castle Entrance &amp; Vestibule</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par les bestioles du pont-levis</t>
+  </si>
+  <si>
+    <t>End of life : Dirk tombe dans le vide</t>
+  </si>
+  <si>
+    <t>End of life : Dirk meurt enseveli</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par les tentacules et disparaît par le haut</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est étouffé par les tentacules</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par les tentacules alors qu'il monte l'escalier</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par les tentacules alors qu'il s'approchait de la porte</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par un serpent au sol</t>
+  </si>
+  <si>
+    <t>End of life : Dirk reçoit des coups de couteau dans le dos</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est attrapé par les serpents dans l'eau et se noie</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par l'araignée</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est écrasé par les blocs de pierre</t>
+  </si>
+  <si>
+    <t>End of life : Dirk se fait gober par le blob crocodile</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est enveseli par le blob</t>
+  </si>
+  <si>
+    <t>End of life : la sorcière de la marmite attrape Dirk</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par les monstres</t>
+  </si>
+  <si>
+    <t>End of life : Dirk reçoit une épée dans le dos</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est poussé dans le vide</t>
+  </si>
+  <si>
+    <t>End of life : Dirk s'agrippe à la corde et meurt noyé</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est brûlé vif</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est mort transpercé par une épée</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est mort transpercé par un gourdin</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est mort transpercé par une enclume</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est transpercé par une lance</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par le monstre en pierre</t>
+  </si>
+  <si>
+    <t>End of life : Dirk traverse un mur</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est désintégré par la lance</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est broyé par les tentacules</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est aspiré et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est écrasé par le mur qui se referme</t>
+  </si>
+  <si>
+    <t>End of life : Dirk meurt par asphyxie</t>
+  </si>
+  <si>
+    <t>End of life : Dirk meurt brûlé</t>
+  </si>
+  <si>
+    <t>End of life : Dirk tape dans la première tour et meurt</t>
+  </si>
+  <si>
+    <t>End of life : Dirk rentre dans un mur et se désintègre</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est brûlé sur son cheval</t>
+  </si>
+  <si>
+    <t>End of life : Dirk a posé ses pieds sur une dalle électrisée et meurt</t>
+  </si>
+  <si>
+    <t>End of life : Dirk meurt</t>
+  </si>
+  <si>
+    <t>End of life : Dirk sort son épée trop tard</t>
+  </si>
+  <si>
+    <t>End of life : la main en os tue Dirk</t>
+  </si>
+  <si>
+    <t>End of life : la boue tue Dirk</t>
+  </si>
+  <si>
+    <t>End of life : les esprits de la crypte tuent Dirk</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par les chauve-souris</t>
+  </si>
+  <si>
+    <t>End of life : la chauve-souris géante tue Dirk</t>
+  </si>
+  <si>
+    <t>End of life : les chauve-souris tuent Dirk</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est poursuivi par les chauve-souris et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>End of life : Dirk s'écrase au sol</t>
+  </si>
+  <si>
+    <t>End of life : Dirk rate son saut et s'écrase</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est hypnotisé</t>
+  </si>
+  <si>
+    <t>End of life : le lézard assomme Dirk</t>
+  </si>
+  <si>
+    <t>End of life : Dirk boit la potion et meurt</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est emprisonné après avoir sauté</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est électrocuté</t>
+  </si>
+  <si>
+    <t>End of life : Dirk heurte une paroi avec son embarcation</t>
+  </si>
+  <si>
+    <t>End of life : Dirk rate l'entrée du tunnel et rentre dans un mur</t>
+  </si>
+  <si>
+    <t>End of life : Dirk rate un virage et casse son embarcation</t>
+  </si>
+  <si>
+    <t>End of life : dans les rapides, Dirk se noie</t>
+  </si>
+  <si>
+    <t>End of life : Dirk lâche la corde et Dirk se noie</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est pris sur un geyser</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est aspiré par les gaz</t>
+  </si>
+  <si>
+    <t>End of life : Dirk se noie</t>
+  </si>
+  <si>
+    <t>End of life : les mudmen attrapent Dirk</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est écrasé par les ronces</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par le chevalier noir</t>
+  </si>
+  <si>
+    <t>End of life : Dirk a peur des boules et se fait écraser par une boule noire</t>
+  </si>
+  <si>
+    <t>End of life : Dirk se fait écraser par une boule rouge</t>
+  </si>
+  <si>
+    <t>End of life : Dirk se coince le pied dans la porte en métal dentée</t>
+  </si>
+  <si>
+    <t>End of life : Dirk explose sur le pont</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par le feu du dragon</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est écrasé par les pinces du dragon</t>
+  </si>
+  <si>
+    <t>End of life : Dirk tente d'arracher l'épée magique mais se fait tuer par le dragon</t>
+  </si>
+  <si>
+    <t>End of life : Dirk arme mais le feu du dragon le touche avant</t>
+  </si>
+  <si>
+    <t>End of life : Dirk est tué par la queue du dragon</t>
+  </si>
+  <si>
+    <t>End of life : Dirk arme son épée magique mais la queue du dragon le touche et le tue</t>
+  </si>
+  <si>
+    <t>Dirk is dead and becomes a skeleton</t>
+  </si>
+  <si>
+    <t>Dirk is alive and kicking (scene introduction)</t>
   </si>
 </sst>
 </file>
@@ -702,12 +747,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,37 +1070,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="162.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="105.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>31587</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1063,13 +1112,13 @@
         <v>153</v>
       </c>
       <c r="C2">
-        <f>B2-A2</f>
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+        <f>B2-A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1081,14 +1130,14 @@
         <v>156</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <f t="shared" ref="C3:C66" si="0">B3-A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1100,13 +1149,13 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1118,13 +1167,13 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1136,13 +1185,13 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1154,13 +1203,13 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1172,13 +1221,13 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1190,13 +1239,13 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1208,13 +1257,13 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1226,13 +1275,13 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1244,13 +1293,13 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1262,13 +1311,13 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1280,13 +1329,13 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1298,13 +1347,13 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1316,16 +1365,16 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>196</v>
       </c>
@@ -1334,16 +1383,16 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>199</v>
       </c>
@@ -1352,16 +1401,16 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>202</v>
       </c>
@@ -1370,16 +1419,16 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>205</v>
       </c>
@@ -1388,16 +1437,16 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>208</v>
       </c>
@@ -1406,16 +1455,16 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>211</v>
       </c>
@@ -1424,16 +1473,16 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>214</v>
       </c>
@@ -1442,16 +1491,16 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>217</v>
       </c>
@@ -1460,16 +1509,16 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>220</v>
       </c>
@@ -1478,16 +1527,16 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>223</v>
       </c>
@@ -1496,16 +1545,16 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>226</v>
       </c>
@@ -1514,16 +1563,16 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>229</v>
       </c>
@@ -1532,16 +1581,16 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>232</v>
       </c>
@@ -1550,16 +1599,16 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>235</v>
       </c>
@@ -1568,16 +1617,16 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>238</v>
       </c>
@@ -1586,16 +1635,16 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>241</v>
       </c>
@@ -1604,16 +1653,16 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>244</v>
       </c>
@@ -1622,16 +1671,16 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>247</v>
       </c>
@@ -1640,16 +1689,16 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>250</v>
       </c>
@@ -1658,16 +1707,16 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>253</v>
       </c>
@@ -1676,16 +1725,16 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>257</v>
       </c>
@@ -1694,16 +1743,16 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>260</v>
       </c>
@@ -1712,16 +1761,16 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>263</v>
       </c>
@@ -1730,16 +1779,16 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>266</v>
       </c>
@@ -1748,16 +1797,16 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>269</v>
       </c>
@@ -1766,16 +1815,16 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>272</v>
       </c>
@@ -1784,16 +1833,16 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>275</v>
       </c>
@@ -1802,16 +1851,16 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>278</v>
       </c>
@@ -1820,16 +1869,16 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>281</v>
       </c>
@@ -1838,16 +1887,16 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>284</v>
       </c>
@@ -1856,16 +1905,16 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>287</v>
       </c>
@@ -1874,16 +1923,16 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>290</v>
       </c>
@@ -1892,16 +1941,16 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>293</v>
       </c>
@@ -1910,16 +1959,16 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>296</v>
       </c>
@@ -1928,16 +1977,16 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>299</v>
       </c>
@@ -1946,16 +1995,16 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>302</v>
       </c>
@@ -1964,16 +2013,16 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>305</v>
       </c>
@@ -1982,16 +2031,16 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>308</v>
       </c>
@@ -2000,16 +2049,16 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>311</v>
       </c>
@@ -2018,16 +2067,16 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>314</v>
       </c>
@@ -2036,16 +2085,16 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>323</v>
       </c>
@@ -2054,16 +2103,16 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>1036</v>
-      </c>
-      <c r="D57" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>1037</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1367</v>
       </c>
@@ -2072,16 +2121,16 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1425</v>
       </c>
@@ -2090,16 +2139,19 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>623</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2049</v>
       </c>
@@ -2108,13 +2160,13 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2085</v>
       </c>
@@ -2123,13 +2175,13 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2133</v>
       </c>
@@ -2138,13 +2190,13 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2213</v>
       </c>
@@ -2153,13 +2205,13 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2297</v>
       </c>
@@ -2168,10 +2220,10 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>157</v>
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2183,16 +2235,16 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65">
+        <v>376</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
         <v>16</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2204,10 +2256,10 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2218,11 +2270,11 @@
         <v>2848</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">B67-A67</f>
-        <v>47</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>87</v>
+        <f t="shared" ref="C67:C130" si="1">B67-A67+1</f>
+        <v>48</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2234,10 +2286,10 @@
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2249,10 +2301,10 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2264,10 +2316,10 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2279,10 +2331,10 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2294,16 +2346,16 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="D72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72">
+        <v>252</v>
+      </c>
+      <c r="D72" s="3">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2315,10 +2367,10 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2330,10 +2382,10 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2345,10 +2397,10 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2360,16 +2412,16 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="D76" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F76" t="s">
-        <v>127</v>
+        <v>300</v>
+      </c>
+      <c r="D76" s="3">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2381,10 +2433,10 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2396,10 +2448,10 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2411,10 +2463,10 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2426,10 +2478,10 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2441,16 +2493,16 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>499</v>
-      </c>
-      <c r="D81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" t="s">
-        <v>128</v>
+        <v>500</v>
+      </c>
+      <c r="D81" s="3">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2462,14 +2514,10 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D82">
-        <f>B82-A82</f>
-        <v>23</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>99</v>
+        <v>24</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2481,14 +2529,10 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ref="D83:D90" si="2">B83-A83</f>
-        <v>47</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2500,14 +2544,10 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2519,14 +2559,10 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2538,14 +2574,10 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2557,14 +2589,10 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2576,14 +2604,10 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2595,14 +2619,10 @@
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2614,14 +2634,10 @@
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2633,16 +2649,16 @@
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F91">
+        <v>300</v>
+      </c>
+      <c r="D91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
         <v>18</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2654,10 +2670,10 @@
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>107</v>
+        <v>36</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2669,10 +2685,10 @@
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2684,10 +2700,10 @@
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>109</v>
+        <v>48</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2699,10 +2715,10 @@
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2714,10 +2730,10 @@
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2729,16 +2745,16 @@
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>263</v>
-      </c>
-      <c r="D97" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F97">
+        <v>264</v>
+      </c>
+      <c r="D97" s="3">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3">
         <v>20</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2750,10 +2766,10 @@
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2765,10 +2781,10 @@
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>113</v>
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2780,10 +2796,10 @@
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2795,10 +2811,10 @@
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2810,10 +2826,10 @@
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2825,16 +2841,16 @@
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="D103" t="s">
-        <v>115</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103">
+        <v>308</v>
+      </c>
+      <c r="D103" s="3">
+        <v>8</v>
+      </c>
+      <c r="E103" s="3">
         <v>19</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2846,10 +2862,10 @@
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2861,10 +2877,10 @@
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2876,10 +2892,10 @@
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2891,10 +2907,10 @@
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2906,13 +2922,10 @@
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2924,17 +2937,16 @@
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>521</v>
-      </c>
-      <c r="D109">
-        <f>B109-A109</f>
-        <v>521</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F109" t="s">
-        <v>129</v>
+        <v>522</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2946,14 +2958,10 @@
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D110">
-        <f t="shared" ref="D110:D117" si="3">B110-A110</f>
-        <v>35</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2965,14 +2973,10 @@
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="E111" t="s">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2984,14 +2988,10 @@
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3003,14 +3003,10 @@
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>122</v>
+        <v>52</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3022,14 +3018,10 @@
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3041,14 +3033,10 @@
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>124</v>
+        <v>72</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3060,14 +3048,10 @@
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3079,14 +3063,10 @@
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3098,16 +3078,16 @@
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>509</v>
-      </c>
-      <c r="D118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F118" t="s">
-        <v>131</v>
+        <v>510</v>
+      </c>
+      <c r="D118" s="3">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3119,10 +3099,10 @@
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3134,10 +3114,10 @@
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>133</v>
+        <v>84</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3149,10 +3129,10 @@
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3164,10 +3144,10 @@
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3179,10 +3159,10 @@
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3194,16 +3174,16 @@
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="D124" t="s">
-        <v>125</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124">
+        <v>216</v>
+      </c>
+      <c r="D124" s="3">
+        <v>11</v>
+      </c>
+      <c r="E124" s="3">
         <v>15</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3215,10 +3195,10 @@
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>136</v>
+        <v>84</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3230,10 +3210,10 @@
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3245,10 +3225,10 @@
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3260,16 +3240,16 @@
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="D128" t="s">
-        <v>137</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128">
+        <v>132</v>
+      </c>
+      <c r="D128" s="3">
+        <v>12</v>
+      </c>
+      <c r="E128" s="3">
         <v>2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3281,10 +3261,10 @@
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3296,10 +3276,10 @@
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3310,11 +3290,11 @@
         <v>9472</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="4">B131-A131</f>
-        <v>83</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>85</v>
+        <f t="shared" ref="C131:C194" si="2">B131-A131+1</f>
+        <v>84</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3325,11 +3305,11 @@
         <v>9528</v>
       </c>
       <c r="C132">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3340,17 +3320,17 @@
         <v>9820</v>
       </c>
       <c r="C133">
-        <f t="shared" si="4"/>
-        <v>291</v>
-      </c>
-      <c r="D133" t="s">
-        <v>141</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="D133" s="3">
+        <v>13</v>
+      </c>
+      <c r="E133" s="3">
         <v>21</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3361,11 +3341,11 @@
         <v>9880</v>
       </c>
       <c r="C134">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3376,11 +3356,11 @@
         <v>9964</v>
       </c>
       <c r="C135">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3391,11 +3371,11 @@
         <v>10020</v>
       </c>
       <c r="C136">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3406,17 +3386,17 @@
         <v>10452</v>
       </c>
       <c r="C137">
-        <f t="shared" si="4"/>
-        <v>431</v>
-      </c>
-      <c r="D137" t="s">
-        <v>144</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F137" t="s">
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="D137" s="3">
+        <v>14</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3427,11 +3407,11 @@
         <v>10500</v>
       </c>
       <c r="C138">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>147</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3442,11 +3422,11 @@
         <v>10564</v>
       </c>
       <c r="C139">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3457,11 +3437,11 @@
         <v>10600</v>
       </c>
       <c r="C140">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>149</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3472,11 +3452,11 @@
         <v>10684</v>
       </c>
       <c r="C141">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3487,11 +3467,11 @@
         <v>10740</v>
       </c>
       <c r="C142">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3502,17 +3482,17 @@
         <v>11220</v>
       </c>
       <c r="C143">
-        <f t="shared" si="4"/>
-        <v>479</v>
-      </c>
-      <c r="D143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F143" t="s">
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="D143" s="3">
+        <v>15</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3523,14 +3503,14 @@
         <v>11268</v>
       </c>
       <c r="C144">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="D144" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3541,11 +3521,11 @@
         <v>11316</v>
       </c>
       <c r="C145">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>155</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3556,11 +3536,11 @@
         <v>11348</v>
       </c>
       <c r="C146">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3571,11 +3551,11 @@
         <v>11432</v>
       </c>
       <c r="C147">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3586,11 +3566,11 @@
         <v>11488</v>
       </c>
       <c r="C148">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3601,17 +3581,17 @@
         <v>11880</v>
       </c>
       <c r="C149">
-        <f t="shared" si="4"/>
-        <v>391</v>
-      </c>
-      <c r="D149" t="s">
-        <v>158</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F149" t="s">
-        <v>160</v>
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="D149" s="3">
+        <v>16</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3622,11 +3602,11 @@
         <v>11916</v>
       </c>
       <c r="C150">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>161</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3637,11 +3617,11 @@
         <v>11940</v>
       </c>
       <c r="C151">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>162</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3652,11 +3632,11 @@
         <v>11976</v>
       </c>
       <c r="C152">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>163</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3667,11 +3647,11 @@
         <v>12048</v>
       </c>
       <c r="C153">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>164</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3682,11 +3662,11 @@
         <v>12132</v>
       </c>
       <c r="C154">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3697,11 +3677,11 @@
         <v>12188</v>
       </c>
       <c r="C155">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3712,17 +3692,17 @@
         <v>12476</v>
       </c>
       <c r="C156">
-        <f t="shared" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="D156" t="s">
-        <v>165</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="D156" s="3">
+        <v>17</v>
+      </c>
+      <c r="E156" s="3">
         <v>23</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3733,11 +3713,11 @@
         <v>12536</v>
       </c>
       <c r="C157">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3748,11 +3728,11 @@
         <v>12584</v>
       </c>
       <c r="C158">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3763,11 +3743,11 @@
         <v>12668</v>
       </c>
       <c r="C159">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3778,11 +3758,11 @@
         <v>12724</v>
       </c>
       <c r="C160">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3793,17 +3773,17 @@
         <v>13024</v>
       </c>
       <c r="C161">
-        <f t="shared" si="4"/>
-        <v>299</v>
-      </c>
-      <c r="D161" t="s">
-        <v>168</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F161" t="s">
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="D161" s="3">
+        <v>18</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3814,11 +3794,11 @@
         <v>13088</v>
       </c>
       <c r="C162">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3829,11 +3809,11 @@
         <v>13162</v>
       </c>
       <c r="C163">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3844,11 +3824,11 @@
         <v>13246</v>
       </c>
       <c r="C164">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3859,11 +3839,11 @@
         <v>13302</v>
       </c>
       <c r="C165">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3874,17 +3854,17 @@
         <v>13802</v>
       </c>
       <c r="C166">
-        <f t="shared" si="4"/>
-        <v>499</v>
-      </c>
-      <c r="D166" t="s">
-        <v>171</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F166" t="s">
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D166" s="3">
+        <v>19</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3896,1546 +3876,2346 @@
         <v>13826</v>
       </c>
       <c r="C167">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>99</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" ref="A168:A231" si="5">B167+1</f>
+        <f t="shared" ref="A168:A231" si="3">B167+1</f>
         <v>13827</v>
       </c>
       <c r="B168">
         <v>13874</v>
       </c>
       <c r="C168">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13875</v>
       </c>
       <c r="B169">
         <v>13922</v>
       </c>
       <c r="C169">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13923</v>
       </c>
       <c r="B170">
         <v>14002</v>
       </c>
       <c r="C170">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14003</v>
       </c>
       <c r="B171">
         <v>14038</v>
       </c>
       <c r="C171">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>101</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14039</v>
       </c>
       <c r="B172">
         <v>14086</v>
       </c>
       <c r="C172">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14087</v>
       </c>
       <c r="B173">
         <v>14146</v>
       </c>
       <c r="C173">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14147</v>
       </c>
       <c r="B174">
         <v>14230</v>
       </c>
       <c r="C174">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14231</v>
       </c>
       <c r="B175">
         <v>14286</v>
       </c>
       <c r="C175">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14287</v>
       </c>
       <c r="B176">
         <v>14574</v>
       </c>
       <c r="C176">
-        <f t="shared" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="D176" t="s">
-        <v>173</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="D176" s="3">
+        <v>20</v>
+      </c>
+      <c r="E176" s="3">
         <v>25</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14575</v>
       </c>
       <c r="B177">
         <v>14610</v>
       </c>
       <c r="C177">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14611</v>
       </c>
       <c r="B178">
         <v>14658</v>
       </c>
       <c r="C178">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>176</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14659</v>
       </c>
       <c r="B179">
         <v>14706</v>
       </c>
       <c r="C179">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14707</v>
       </c>
       <c r="B180">
         <v>14790</v>
       </c>
       <c r="C180">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14791</v>
       </c>
       <c r="B181">
         <v>14846</v>
       </c>
       <c r="C181">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14847</v>
       </c>
       <c r="B182">
         <v>15225</v>
       </c>
       <c r="C182">
-        <f t="shared" si="4"/>
-        <v>378</v>
-      </c>
-      <c r="D182" t="s">
-        <v>178</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F182" t="s">
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="D182" s="3">
+        <v>21</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15226</v>
       </c>
       <c r="B183">
         <v>15305</v>
       </c>
       <c r="C183">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>181</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15306</v>
       </c>
       <c r="B184">
         <v>15365</v>
       </c>
       <c r="C184">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15366</v>
       </c>
       <c r="B185">
         <v>15437</v>
       </c>
       <c r="C185">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>183</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15438</v>
       </c>
       <c r="B186">
         <v>15485</v>
       </c>
       <c r="C186">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>184</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15486</v>
       </c>
       <c r="B187">
         <v>15569</v>
       </c>
       <c r="C187">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15570</v>
       </c>
       <c r="B188">
         <v>15625</v>
       </c>
       <c r="C188">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15626</v>
       </c>
       <c r="B189">
         <v>16147</v>
       </c>
       <c r="C189">
-        <f t="shared" si="4"/>
-        <v>521</v>
-      </c>
-      <c r="D189" t="s">
-        <v>185</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F189" t="s">
-        <v>186</v>
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+      <c r="D189" s="3">
+        <v>22</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16148</v>
       </c>
       <c r="B190">
         <v>16183</v>
       </c>
       <c r="C190">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="D190">
-        <v>35</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16184</v>
       </c>
       <c r="B191">
         <v>16207</v>
       </c>
       <c r="C191">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="D191">
-        <v>23</v>
-      </c>
-      <c r="E191" t="s">
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16208</v>
       </c>
       <c r="B192">
         <v>16255</v>
       </c>
       <c r="C192">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="D192">
-        <v>47</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>121</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16256</v>
       </c>
       <c r="B193">
         <v>16307</v>
       </c>
       <c r="C193">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="D193">
-        <v>51</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>122</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16308</v>
       </c>
       <c r="B194">
         <v>16331</v>
       </c>
       <c r="C194">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="D194">
-        <v>23</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16332</v>
       </c>
       <c r="B195">
         <v>16403</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C235" si="6">B195-A195</f>
-        <v>71</v>
-      </c>
-      <c r="D195">
-        <v>71</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>124</v>
+        <f t="shared" ref="C195:C258" si="4">B195-A195+1</f>
+        <v>72</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16404</v>
       </c>
       <c r="B196">
         <v>16487</v>
       </c>
       <c r="C196">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="D196">
-        <v>83</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16488</v>
       </c>
       <c r="B197">
         <v>16543</v>
       </c>
       <c r="C197">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="D197">
-        <v>55</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16544</v>
       </c>
       <c r="B198">
         <v>16975</v>
       </c>
       <c r="C198">
-        <f t="shared" si="6"/>
-        <v>431</v>
-      </c>
-      <c r="D198" t="s">
-        <v>188</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F198" t="s">
-        <v>189</v>
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="D198" s="3">
+        <v>23</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16976</v>
       </c>
       <c r="B199">
         <v>17023</v>
       </c>
       <c r="C199">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>147</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17024</v>
       </c>
       <c r="B200">
         <v>17087</v>
       </c>
       <c r="C200">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>148</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17088</v>
       </c>
       <c r="B201">
         <v>17123</v>
       </c>
       <c r="C201">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>149</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17124</v>
       </c>
       <c r="B202">
         <v>17207</v>
       </c>
       <c r="C202">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17208</v>
       </c>
       <c r="B203">
         <v>17263</v>
       </c>
       <c r="C203">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17264</v>
       </c>
       <c r="B204">
         <v>18035</v>
       </c>
       <c r="C204">
-        <f t="shared" si="6"/>
-        <v>771</v>
-      </c>
-      <c r="D204" t="s">
-        <v>190</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F204">
+        <f t="shared" si="4"/>
+        <v>772</v>
+      </c>
+      <c r="D204" s="3">
+        <v>24</v>
+      </c>
+      <c r="E204" s="3">
         <v>13</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18036</v>
       </c>
       <c r="B205">
         <v>18059</v>
       </c>
       <c r="C205">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>192</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18060</v>
       </c>
       <c r="B206">
         <v>18141</v>
       </c>
       <c r="C206">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>193</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18142</v>
       </c>
       <c r="B207">
         <v>18225</v>
       </c>
       <c r="C207">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18226</v>
       </c>
       <c r="B208">
         <v>18281</v>
       </c>
       <c r="C208">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18282</v>
       </c>
       <c r="B209">
         <v>18377</v>
       </c>
       <c r="C209">
-        <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="D209" t="s">
-        <v>194</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F209">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D209" s="3">
+        <v>25</v>
+      </c>
+      <c r="E209" s="3">
         <v>4</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18378</v>
       </c>
       <c r="B210">
         <v>18485</v>
       </c>
       <c r="C210">
-        <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>196</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18486</v>
       </c>
       <c r="B211">
         <v>18521</v>
       </c>
       <c r="C211">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18522</v>
       </c>
       <c r="B212">
         <v>18605</v>
       </c>
       <c r="C212">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18606</v>
       </c>
       <c r="B213">
         <v>18662</v>
       </c>
       <c r="C213">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18663</v>
       </c>
       <c r="B214">
         <v>19053</v>
       </c>
       <c r="C214">
-        <f t="shared" si="6"/>
-        <v>390</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F214" t="s">
-        <v>197</v>
+        <f t="shared" si="4"/>
+        <v>391</v>
+      </c>
+      <c r="D214" s="3">
+        <v>26</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19054</v>
       </c>
       <c r="B215">
         <v>19089</v>
       </c>
       <c r="C215">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19090</v>
       </c>
       <c r="B216">
         <v>19113</v>
       </c>
       <c r="C216">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>162</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19114</v>
       </c>
       <c r="B217">
         <v>19149</v>
       </c>
       <c r="C217">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>163</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19150</v>
       </c>
       <c r="B218">
         <v>19221</v>
       </c>
       <c r="C218">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>164</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19222</v>
       </c>
       <c r="B219">
         <v>19305</v>
       </c>
       <c r="C219">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19306</v>
       </c>
       <c r="B220">
         <v>19361</v>
       </c>
       <c r="C220">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19362</v>
       </c>
       <c r="B221">
         <v>19871</v>
       </c>
       <c r="C221">
-        <f t="shared" si="6"/>
-        <v>509</v>
-      </c>
-      <c r="D221" t="s">
-        <v>198</v>
-      </c>
-      <c r="E221" t="s">
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="D221" s="3">
+        <v>27</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F221" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19872</v>
       </c>
       <c r="B222">
         <v>19925</v>
       </c>
       <c r="C222">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="E222" t="s">
-        <v>132</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F222" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19926</v>
       </c>
       <c r="B223">
         <v>20009</v>
       </c>
       <c r="C223">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E223" t="s">
-        <v>133</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F223" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20010</v>
       </c>
       <c r="B224">
         <v>20045</v>
       </c>
       <c r="C224">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E224" t="s">
-        <v>134</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F224" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20046</v>
       </c>
       <c r="B225">
         <v>20129</v>
       </c>
       <c r="C225">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="E225" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F225" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20130</v>
       </c>
       <c r="B226">
         <v>20185</v>
       </c>
       <c r="C226">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="E226" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F226" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20186</v>
       </c>
       <c r="B227">
         <v>20383</v>
       </c>
       <c r="C227">
-        <f t="shared" si="6"/>
-        <v>197</v>
-      </c>
-      <c r="D227" t="s">
-        <v>202</v>
-      </c>
-      <c r="E227" t="s">
-        <v>201</v>
-      </c>
-      <c r="F227">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="D227" s="3">
+        <v>28</v>
+      </c>
+      <c r="E227" s="3">
         <v>27</v>
+      </c>
+      <c r="F227" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20384</v>
       </c>
       <c r="B228">
         <v>20449</v>
       </c>
       <c r="C228">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="E228" t="s">
-        <v>203</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F228" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
       <c r="B229">
         <v>20485</v>
       </c>
       <c r="C229">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="E229" t="s">
-        <v>119</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20486</v>
       </c>
       <c r="B230">
         <v>20535</v>
       </c>
       <c r="C230">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="E230" t="s">
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="F230" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20536</v>
       </c>
       <c r="B231">
         <v>20617</v>
       </c>
       <c r="C231">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="E231" t="s">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F231" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
-        <f t="shared" ref="A232:A295" si="7">B231+1</f>
+        <f t="shared" ref="A232:A295" si="5">B231+1</f>
         <v>20618</v>
       </c>
       <c r="B232">
         <v>20673</v>
       </c>
       <c r="C232">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="E232" t="s">
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F232" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>20674</v>
       </c>
+      <c r="B233">
+        <v>20927</v>
+      </c>
       <c r="C233">
-        <f t="shared" si="6"/>
-        <v>-20674</v>
-      </c>
-      <c r="D233" t="s">
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="D233" s="3">
+        <v>29</v>
+      </c>
+      <c r="E233" s="3">
+        <v>26</v>
+      </c>
+      <c r="F233" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>20928</v>
+      </c>
+      <c r="B234">
+        <v>21071</v>
       </c>
       <c r="C234">
-        <f t="shared" si="6"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="F234" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>21072</v>
+      </c>
+      <c r="B235">
+        <v>21155</v>
       </c>
       <c r="C235">
-        <f t="shared" si="6"/>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F235" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>21156</v>
+      </c>
+      <c r="B236">
+        <v>21211</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F236" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>21212</v>
+      </c>
+      <c r="B237">
+        <v>21691</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="D237" s="3">
+        <v>30</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F237" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>21692</v>
+      </c>
+      <c r="B238">
+        <v>21739</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F238" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>21740</v>
+      </c>
+      <c r="B239">
+        <v>21787</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F239" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
+        <f t="shared" si="5"/>
+        <v>21788</v>
+      </c>
+      <c r="B240">
+        <v>21819</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="F240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="5"/>
+        <v>21820</v>
+      </c>
+      <c r="B241">
+        <v>21904</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F241" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="5"/>
+        <v>21905</v>
+      </c>
+      <c r="B242">
+        <v>21958</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F242" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="5"/>
+        <v>21959</v>
+      </c>
+      <c r="B243">
+        <v>22337</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="D243" s="3">
+        <v>31</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F243" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="5"/>
+        <v>22338</v>
+      </c>
+      <c r="B244">
+        <v>22417</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F244" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="5"/>
+        <v>22418</v>
+      </c>
+      <c r="B245">
+        <v>22477</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F245" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="5"/>
+        <v>22478</v>
+      </c>
+      <c r="B246">
+        <v>22549</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F246" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="5"/>
+        <v>22550</v>
+      </c>
+      <c r="B247">
+        <v>22597</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F247" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="5"/>
+        <v>22598</v>
+      </c>
+      <c r="B248">
+        <v>22681</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F248" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="5"/>
+        <v>22682</v>
+      </c>
+      <c r="B249">
+        <v>22737</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="5"/>
+        <v>22738</v>
+      </c>
+      <c r="B250">
+        <v>23937</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="D250" s="3">
+        <v>32</v>
+      </c>
+      <c r="E250" s="3">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="5"/>
+        <v>23938</v>
+      </c>
+      <c r="B251">
+        <v>23961</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F251" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="5"/>
+        <v>23962</v>
+      </c>
+      <c r="B252">
+        <v>23985</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F252" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="5"/>
+        <v>23986</v>
+      </c>
+      <c r="B253">
+        <v>24009</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F253" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="5"/>
+        <v>24010</v>
+      </c>
+      <c r="B254">
+        <v>24033</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F254" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="5"/>
+        <v>24034</v>
+      </c>
+      <c r="B255">
+        <v>24093</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F255" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="5"/>
+        <v>24094</v>
+      </c>
+      <c r="B256">
+        <v>24157</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F256" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="5"/>
+        <v>24158</v>
+      </c>
+      <c r="B257">
+        <v>24237</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F257" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="5"/>
+        <v>24238</v>
+      </c>
+      <c r="B258">
+        <v>24321</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F258" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" si="5"/>
+        <v>24322</v>
+      </c>
+      <c r="B259">
+        <v>24378</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ref="C259:C305" si="6">B259-A259+1</f>
+        <v>57</v>
+      </c>
+      <c r="F259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="5"/>
+        <v>24379</v>
+      </c>
+      <c r="B260">
+        <v>25097</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="6"/>
+        <v>719</v>
+      </c>
+      <c r="D260" s="3">
+        <v>33</v>
+      </c>
+      <c r="E260" s="3">
+        <v>28</v>
+      </c>
+      <c r="F260" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="5"/>
+        <v>25098</v>
+      </c>
+      <c r="B261">
+        <v>25121</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F261" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" si="5"/>
+        <v>25122</v>
+      </c>
+      <c r="B262">
+        <v>25145</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F262" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="5"/>
+        <v>25146</v>
+      </c>
+      <c r="B263">
+        <v>25193</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F263" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="5"/>
+        <v>25194</v>
+      </c>
+      <c r="B264">
+        <v>25299</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="F264" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="5"/>
+        <v>25300</v>
+      </c>
+      <c r="B265">
+        <v>25359</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F265" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="5"/>
+        <v>25360</v>
+      </c>
+      <c r="B266">
+        <v>25395</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F266" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="5"/>
+        <v>25396</v>
+      </c>
+      <c r="B267">
+        <v>25479</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F267" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="5"/>
+        <v>25480</v>
+      </c>
+      <c r="B268">
+        <v>25536</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F268" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="5"/>
+        <v>25537</v>
+      </c>
+      <c r="B269">
+        <v>25849</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="6"/>
+        <v>313</v>
+      </c>
+      <c r="D269" s="3">
+        <v>34</v>
+      </c>
+      <c r="E269" s="3">
+        <v>11</v>
+      </c>
+      <c r="F269" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="5"/>
+        <v>25850</v>
+      </c>
+      <c r="B270">
+        <v>25885</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F270" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="5"/>
+        <v>25886</v>
+      </c>
+      <c r="B271">
+        <v>25957</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F271" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="5"/>
+        <v>25958</v>
+      </c>
+      <c r="B272">
+        <v>26041</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F272" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="5"/>
+        <v>26042</v>
+      </c>
+      <c r="B273">
+        <v>26098</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F273" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="5"/>
+        <v>26099</v>
+      </c>
+      <c r="B274">
+        <v>26577</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="6"/>
+        <v>479</v>
+      </c>
+      <c r="D274" s="3">
+        <v>35</v>
+      </c>
+      <c r="E274" s="3">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="5"/>
+        <v>26578</v>
+      </c>
+      <c r="B275">
+        <v>26613</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F275" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="5"/>
+        <v>26614</v>
+      </c>
+      <c r="B276">
+        <v>26637</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F276" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="5"/>
+        <v>26638</v>
+      </c>
+      <c r="B277">
+        <v>26721</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="5"/>
+        <v>26722</v>
+      </c>
+      <c r="B278">
+        <v>26778</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F278" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="5"/>
+        <v>26779</v>
+      </c>
+      <c r="B279">
+        <v>27049</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="D279" s="3">
+        <v>36</v>
+      </c>
+      <c r="E279" s="3">
+        <v>10</v>
+      </c>
+      <c r="F279" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="5"/>
+        <v>27050</v>
+      </c>
+      <c r="B280">
+        <v>27085</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F280" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="5"/>
+        <v>27086</v>
+      </c>
+      <c r="B281">
+        <v>27121</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F281" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="5"/>
+        <v>27122</v>
+      </c>
+      <c r="B282">
+        <v>27157</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F282" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="5"/>
+        <v>27158</v>
+      </c>
+      <c r="B283">
+        <v>27241</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F283" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="5"/>
+        <v>27242</v>
+      </c>
+      <c r="B284">
+        <v>27298</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F284" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="5"/>
+        <v>27299</v>
+      </c>
+      <c r="B285">
+        <v>28497</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="6"/>
+        <v>1199</v>
+      </c>
+      <c r="D285" s="3">
+        <v>37</v>
+      </c>
+      <c r="E285" s="3">
+        <v>6</v>
+      </c>
+      <c r="F285" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="5"/>
+        <v>28498</v>
+      </c>
+      <c r="B286">
+        <v>28521</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F286" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="5"/>
+        <v>28522</v>
+      </c>
+      <c r="B287">
+        <v>28545</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F287" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="5"/>
+        <v>28546</v>
+      </c>
+      <c r="B288">
+        <v>28569</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F288" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="5"/>
+        <v>28570</v>
+      </c>
+      <c r="B289">
+        <v>28593</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F289" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="5"/>
+        <v>28594</v>
+      </c>
+      <c r="B290">
+        <v>28653</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F290" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="5"/>
+        <v>28654</v>
+      </c>
+      <c r="B291">
+        <v>28717</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F291" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="5"/>
+        <v>28718</v>
+      </c>
+      <c r="B292">
+        <v>28797</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="F292" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" si="5"/>
+        <v>28798</v>
+      </c>
+      <c r="B293">
+        <v>28881</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F293" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="5"/>
+        <v>28882</v>
+      </c>
+      <c r="B294">
+        <v>28938</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F294" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="5"/>
+        <v>28939</v>
+      </c>
+      <c r="B295">
+        <v>31189</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="6"/>
+        <v>2251</v>
+      </c>
+      <c r="D295" s="3">
+        <v>38</v>
+      </c>
+      <c r="E295" s="3">
+        <v>29</v>
+      </c>
+      <c r="F295" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" ref="A296:A303" si="7">B295+1</f>
+        <v>31190</v>
+      </c>
+      <c r="B296">
+        <v>31237</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F296" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
         <f t="shared" si="7"/>
+        <v>31238</v>
+      </c>
+      <c r="B297">
+        <v>31297</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F297" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="7"/>
+        <v>31298</v>
+      </c>
+      <c r="B298">
+        <v>31345</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F298" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="7"/>
+        <v>31346</v>
+      </c>
+      <c r="B299">
+        <v>31393</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F299" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" si="7"/>
+        <v>31394</v>
+      </c>
+      <c r="B300">
+        <v>31453</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F300" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" si="7"/>
+        <v>31454</v>
+      </c>
+      <c r="B301">
+        <v>31501</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F301" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" si="7"/>
+        <v>31502</v>
+      </c>
+      <c r="B302">
+        <v>31585</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F302" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" si="7"/>
+        <v>31586</v>
+      </c>
+      <c r="B303">
+        <v>31615</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="F303" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>31616</v>
+      </c>
+      <c r="B304">
+        <v>31616</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <f t="shared" ref="A296:A299" si="8">B295+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="F304" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>31617</v>
+      </c>
+      <c r="B305">
+        <v>31676</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F305" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>31735</v>
+      </c>
+      <c r="F306" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F306" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE25835-8CA1-C84E-95A2-79BFF5BCB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F147CB-8165-714F-8073-064B621DA1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -489,229 +489,229 @@
     <t>Castle Entrance &amp; Vestibule</t>
   </si>
   <si>
-    <t>End of life : Dirk est attrapé par les bestioles du pont-levis</t>
-  </si>
-  <si>
-    <t>End of life : Dirk tombe dans le vide</t>
-  </si>
-  <si>
-    <t>End of life : Dirk meurt enseveli</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est attrapé par les tentacules et disparaît par le haut</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est étouffé par les tentacules</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est attrapé par les tentacules alors qu'il monte l'escalier</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est attrapé par les tentacules alors qu'il s'approchait de la porte</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est attrapé par un serpent au sol</t>
-  </si>
-  <si>
-    <t>End of life : Dirk reçoit des coups de couteau dans le dos</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est attrapé par les serpents dans l'eau et se noie</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par l'araignée</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est écrasé par les blocs de pierre</t>
-  </si>
-  <si>
-    <t>End of life : Dirk se fait gober par le blob crocodile</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est enveseli par le blob</t>
-  </si>
-  <si>
-    <t>End of life : la sorcière de la marmite attrape Dirk</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par les monstres</t>
-  </si>
-  <si>
-    <t>End of life : Dirk reçoit une épée dans le dos</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est poussé dans le vide</t>
-  </si>
-  <si>
-    <t>End of life : Dirk s'agrippe à la corde et meurt noyé</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est brûlé vif</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est mort transpercé par une épée</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est mort transpercé par un gourdin</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est mort transpercé par une enclume</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est transpercé par une lance</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par le monstre en pierre</t>
-  </si>
-  <si>
-    <t>End of life : Dirk traverse un mur</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est désintégré par la lance</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est broyé par les tentacules</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est aspiré et tombe dans le vide</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est écrasé par le mur qui se referme</t>
-  </si>
-  <si>
-    <t>End of life : Dirk meurt par asphyxie</t>
-  </si>
-  <si>
-    <t>End of life : Dirk meurt brûlé</t>
-  </si>
-  <si>
-    <t>End of life : Dirk tape dans la première tour et meurt</t>
-  </si>
-  <si>
-    <t>End of life : Dirk rentre dans un mur et se désintègre</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est brûlé sur son cheval</t>
-  </si>
-  <si>
-    <t>End of life : Dirk a posé ses pieds sur une dalle électrisée et meurt</t>
-  </si>
-  <si>
-    <t>End of life : Dirk meurt</t>
-  </si>
-  <si>
-    <t>End of life : Dirk sort son épée trop tard</t>
-  </si>
-  <si>
-    <t>End of life : la main en os tue Dirk</t>
-  </si>
-  <si>
-    <t>End of life : la boue tue Dirk</t>
-  </si>
-  <si>
-    <t>End of life : les esprits de la crypte tuent Dirk</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par les chauve-souris</t>
-  </si>
-  <si>
-    <t>End of life : la chauve-souris géante tue Dirk</t>
-  </si>
-  <si>
-    <t>End of life : les chauve-souris tuent Dirk</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est poursuivi par les chauve-souris et tombe dans le vide</t>
-  </si>
-  <si>
-    <t>End of life : Dirk s'écrase au sol</t>
-  </si>
-  <si>
-    <t>End of life : Dirk rate son saut et s'écrase</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est hypnotisé</t>
-  </si>
-  <si>
-    <t>End of life : le lézard assomme Dirk</t>
-  </si>
-  <si>
-    <t>End of life : Dirk boit la potion et meurt</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est emprisonné après avoir sauté</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est électrocuté</t>
-  </si>
-  <si>
-    <t>End of life : Dirk heurte une paroi avec son embarcation</t>
-  </si>
-  <si>
-    <t>End of life : Dirk rate l'entrée du tunnel et rentre dans un mur</t>
-  </si>
-  <si>
-    <t>End of life : Dirk rate un virage et casse son embarcation</t>
-  </si>
-  <si>
-    <t>End of life : dans les rapides, Dirk se noie</t>
-  </si>
-  <si>
-    <t>End of life : Dirk lâche la corde et Dirk se noie</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est pris sur un geyser</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est aspiré par les gaz</t>
-  </si>
-  <si>
-    <t>End of life : Dirk se noie</t>
-  </si>
-  <si>
-    <t>End of life : les mudmen attrapent Dirk</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est écrasé par les ronces</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par le chevalier noir</t>
-  </si>
-  <si>
-    <t>End of life : Dirk a peur des boules et se fait écraser par une boule noire</t>
-  </si>
-  <si>
-    <t>End of life : Dirk se fait écraser par une boule rouge</t>
-  </si>
-  <si>
-    <t>End of life : Dirk se coince le pied dans la porte en métal dentée</t>
-  </si>
-  <si>
-    <t>End of life : Dirk explose sur le pont</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par le feu du dragon</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est écrasé par les pinces du dragon</t>
-  </si>
-  <si>
-    <t>End of life : Dirk tente d'arracher l'épée magique mais se fait tuer par le dragon</t>
-  </si>
-  <si>
-    <t>End of life : Dirk arme mais le feu du dragon le touche avant</t>
-  </si>
-  <si>
-    <t>End of life : Dirk est tué par la queue du dragon</t>
-  </si>
-  <si>
-    <t>End of life : Dirk arme son épée magique mais la queue du dragon le touche et le tue</t>
-  </si>
-  <si>
     <t>Dirk is dead and becomes a skeleton</t>
   </si>
   <si>
     <t>Dirk is alive and kicking (scene introduction)</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par les bestioles du pont-levis</t>
+  </si>
+  <si>
+    <t>Death : Dirk tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Death : Dirk meurt enseveli</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par les tentacules et disparaît par le haut</t>
+  </si>
+  <si>
+    <t>Death : Dirk est étouffé par les tentacules</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par les tentacules alors qu'il monte l'escalier</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par les tentacules alors qu'il s'approchait de la porte</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par un serpent au sol</t>
+  </si>
+  <si>
+    <t>Death : Dirk reçoit des coups de couteau dans le dos</t>
+  </si>
+  <si>
+    <t>Death : Dirk est attrapé par les serpents dans l'eau et se noie</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par l'araignée</t>
+  </si>
+  <si>
+    <t>Death : Dirk est écrasé par les blocs de pierre</t>
+  </si>
+  <si>
+    <t>Death : Dirk se fait gober par le blob crocodile</t>
+  </si>
+  <si>
+    <t>Death : Dirk est enveseli par le blob</t>
+  </si>
+  <si>
+    <t>Death : la sorcière de la marmite attrape Dirk</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par les monstres</t>
+  </si>
+  <si>
+    <t>Death : Dirk reçoit une épée dans le dos</t>
+  </si>
+  <si>
+    <t>Death : Dirk est poussé dans le vide</t>
+  </si>
+  <si>
+    <t>Death : Dirk s'agrippe à la corde et meurt noyé</t>
+  </si>
+  <si>
+    <t>Death : Dirk est brûlé vif</t>
+  </si>
+  <si>
+    <t>Death : Dirk est mort transpercé par une épée</t>
+  </si>
+  <si>
+    <t>Death : Dirk est mort transpercé par un gourdin</t>
+  </si>
+  <si>
+    <t>Death : Dirk est mort transpercé par une enclume</t>
+  </si>
+  <si>
+    <t>Death : Dirk est transpercé par une lance</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par le monstre en pierre</t>
+  </si>
+  <si>
+    <t>Death : Dirk traverse un mur</t>
+  </si>
+  <si>
+    <t>Death : Dirk est désintégré par la lance</t>
+  </si>
+  <si>
+    <t>Death : Dirk est broyé par les tentacules</t>
+  </si>
+  <si>
+    <t>Death : Dirk est aspiré et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Death : Dirk est écrasé par le mur qui se referme</t>
+  </si>
+  <si>
+    <t>Death : Dirk meurt par asphyxie</t>
+  </si>
+  <si>
+    <t>Death : Dirk meurt brûlé</t>
+  </si>
+  <si>
+    <t>Death : Dirk tape dans la première tour et meurt</t>
+  </si>
+  <si>
+    <t>Death : Dirk rentre dans un mur et se désintègre</t>
+  </si>
+  <si>
+    <t>Death : Dirk est brûlé sur son cheval</t>
+  </si>
+  <si>
+    <t>Death : Dirk a posé ses pieds sur une dalle électrisée et meurt</t>
+  </si>
+  <si>
+    <t>Death : Dirk meurt</t>
+  </si>
+  <si>
+    <t>Death : Dirk sort son épée trop tard</t>
+  </si>
+  <si>
+    <t>Death : la main en os tue Dirk</t>
+  </si>
+  <si>
+    <t>Death : la boue tue Dirk</t>
+  </si>
+  <si>
+    <t>Death : les esprits de la crypte tuent Dirk</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par les chauve-souris</t>
+  </si>
+  <si>
+    <t>Death : la chauve-souris géante tue Dirk</t>
+  </si>
+  <si>
+    <t>Death : les chauve-souris tuent Dirk</t>
+  </si>
+  <si>
+    <t>Death : Dirk est poursuivi par les chauve-souris et tombe dans le vide</t>
+  </si>
+  <si>
+    <t>Death : Dirk s'écrase au sol</t>
+  </si>
+  <si>
+    <t>Death : Dirk rate son saut et s'écrase</t>
+  </si>
+  <si>
+    <t>Death : Dirk est hypnotisé</t>
+  </si>
+  <si>
+    <t>Death : le lézard assomme Dirk</t>
+  </si>
+  <si>
+    <t>Death : Dirk boit la potion et meurt</t>
+  </si>
+  <si>
+    <t>Death : Dirk est emprisonné après avoir sauté</t>
+  </si>
+  <si>
+    <t>Death : Dirk est électrocuté</t>
+  </si>
+  <si>
+    <t>Death : Dirk heurte une paroi avec son embarcation</t>
+  </si>
+  <si>
+    <t>Death : Dirk rate l'entrée du tunnel et rentre dans un mur</t>
+  </si>
+  <si>
+    <t>Death : Dirk rate un virage et casse son embarcation</t>
+  </si>
+  <si>
+    <t>Death : dans les rapides, Dirk se noie</t>
+  </si>
+  <si>
+    <t>Death : Dirk lâche la corde et Dirk se noie</t>
+  </si>
+  <si>
+    <t>Death : Dirk est pris sur un geyser</t>
+  </si>
+  <si>
+    <t>Death : Dirk est aspiré par les gaz</t>
+  </si>
+  <si>
+    <t>Death : Dirk se noie</t>
+  </si>
+  <si>
+    <t>Death : les mudmen attrapent Dirk</t>
+  </si>
+  <si>
+    <t>Death : Dirk est écrasé par les ronces</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par le chevalier noir</t>
+  </si>
+  <si>
+    <t>Death : Dirk a peur des boules et se fait écraser par une boule noire</t>
+  </si>
+  <si>
+    <t>Death : Dirk se fait écraser par une boule rouge</t>
+  </si>
+  <si>
+    <t>Death : Dirk se coince le pied dans la porte en métal dentée</t>
+  </si>
+  <si>
+    <t>Death : Dirk explose sur le pont</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par le feu du dragon</t>
+  </si>
+  <si>
+    <t>Death : Dirk est écrasé par les pinces du dragon</t>
+  </si>
+  <si>
+    <t>Death : Dirk tente d'arracher l'épée magique mais se fait tuer par le dragon</t>
+  </si>
+  <si>
+    <t>Death : Dirk arme mais le feu du dragon le touche avant</t>
+  </si>
+  <si>
+    <t>Death : Dirk est tué par la queue du dragon</t>
+  </si>
+  <si>
+    <t>Death : Dirk arme son épée magique mais la queue du dragon le touche et le tue</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1073,8 @@
   <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2163,7 @@
         <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>48</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
         <v>84</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>56</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2259,7 +2259,7 @@
         <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>72</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2319,7 +2319,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
         <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2400,7 +2400,7 @@
         <v>56</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2466,7 +2466,7 @@
         <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
         <v>56</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
         <v>48</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
         <v>48</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2562,7 +2562,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2592,7 +2592,7 @@
         <v>48</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2622,7 +2622,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>56</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
         <v>36</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
         <v>36</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2703,7 +2703,7 @@
         <v>48</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>84</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>56</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
         <v>52</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>108</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>84</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2829,7 +2829,7 @@
         <v>56</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2880,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2895,7 +2895,7 @@
         <v>96</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>84</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
         <v>36</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -2976,7 +2976,7 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2991,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3006,7 +3006,7 @@
         <v>52</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3036,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>84</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
         <v>56</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>54</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>84</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>36</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>84</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3162,7 +3162,7 @@
         <v>56</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3198,7 +3198,7 @@
         <v>84</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>84</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
         <v>56</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3264,7 +3264,7 @@
         <v>48</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
         <v>84</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3309,7 +3309,7 @@
         <v>56</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3345,7 +3345,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
         <v>84</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
         <v>56</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3411,7 +3411,7 @@
         <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3426,7 +3426,7 @@
         <v>64</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
         <v>36</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3456,7 +3456,7 @@
         <v>84</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>56</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
         <v>32</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>84</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>56</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>36</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
         <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>36</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3651,7 +3651,7 @@
         <v>72</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3666,7 +3666,7 @@
         <v>84</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>56</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>48</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
         <v>84</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
         <v>56</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>84</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
         <v>56</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
         <v>48</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3912,7 +3912,7 @@
         <v>48</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>80</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
         <v>36</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>48</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>60</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>84</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>56</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>36</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>48</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>84</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>56</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>80</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4164,7 +4164,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
         <v>84</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>56</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4266,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4282,7 +4282,7 @@
         <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4298,7 +4298,7 @@
         <v>48</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>52</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
         <v>24</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4346,7 +4346,7 @@
         <v>72</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4362,7 +4362,7 @@
         <v>84</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <v>56</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4416,7 +4416,7 @@
         <v>48</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>64</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4448,7 +4448,7 @@
         <v>36</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4464,7 +4464,7 @@
         <v>84</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4480,7 +4480,7 @@
         <v>56</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>82</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>84</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
         <v>56</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>108</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
         <v>36</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>84</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
         <v>57</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
         <v>36</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4706,7 +4706,7 @@
         <v>24</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4722,7 +4722,7 @@
         <v>36</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>72</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4754,7 +4754,7 @@
         <v>84</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4770,7 +4770,7 @@
         <v>56</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4808,7 +4808,7 @@
         <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,7 +4824,7 @@
         <v>84</v>
       </c>
       <c r="F223" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4840,7 +4840,7 @@
         <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,7 +4856,7 @@
         <v>84</v>
       </c>
       <c r="F225" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,7 +4872,7 @@
         <v>56</v>
       </c>
       <c r="F226" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
         <v>66</v>
       </c>
       <c r="F228" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>50</v>
       </c>
       <c r="F230" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>82</v>
       </c>
       <c r="F231" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>56</v>
       </c>
       <c r="F232" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
         <v>144</v>
       </c>
       <c r="F234" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>84</v>
       </c>
       <c r="F235" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5044,7 +5044,7 @@
         <v>56</v>
       </c>
       <c r="F236" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,7 +5101,7 @@
         <v>48</v>
       </c>
       <c r="F239" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,7 +5117,7 @@
         <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5133,7 +5133,7 @@
         <v>85</v>
       </c>
       <c r="F241" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
         <v>54</v>
       </c>
       <c r="F242" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,7 +5187,7 @@
         <v>80</v>
       </c>
       <c r="F244" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
         <v>60</v>
       </c>
       <c r="F245" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>84</v>
       </c>
       <c r="F248" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
         <v>56</v>
       </c>
       <c r="F249" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>24</v>
       </c>
       <c r="F251" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>24</v>
       </c>
       <c r="F252" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -5337,7 +5337,7 @@
         <v>24</v>
       </c>
       <c r="F253" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>60</v>
       </c>
       <c r="F255" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -5385,7 +5385,7 @@
         <v>64</v>
       </c>
       <c r="F256" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>80</v>
       </c>
       <c r="F257" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>84</v>
       </c>
       <c r="F258" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
         <v>57</v>
       </c>
       <c r="F259" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>24</v>
       </c>
       <c r="F261" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="F262" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>48</v>
       </c>
       <c r="F263" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>106</v>
       </c>
       <c r="F264" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>60</v>
       </c>
       <c r="F265" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>84</v>
       </c>
       <c r="F267" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>57</v>
       </c>
       <c r="F268" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -5637,7 +5637,7 @@
         <v>72</v>
       </c>
       <c r="F271" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -5653,7 +5653,7 @@
         <v>84</v>
       </c>
       <c r="F272" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -5669,7 +5669,7 @@
         <v>57</v>
       </c>
       <c r="F273" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -5707,7 +5707,7 @@
         <v>36</v>
       </c>
       <c r="F275" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
         <v>24</v>
       </c>
       <c r="F276" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,7 +5739,7 @@
         <v>84</v>
       </c>
       <c r="F277" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -5755,7 +5755,7 @@
         <v>57</v>
       </c>
       <c r="F278" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="F280" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>84</v>
       </c>
       <c r="F283" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>57</v>
       </c>
       <c r="F284" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="F286" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>24</v>
       </c>
       <c r="F287" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>24</v>
       </c>
       <c r="F288" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>24</v>
       </c>
       <c r="F289" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="F290" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>64</v>
       </c>
       <c r="F291" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>80</v>
       </c>
       <c r="F292" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>84</v>
       </c>
       <c r="F293" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>57</v>
       </c>
       <c r="F294" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -6061,7 +6061,7 @@
         <v>48</v>
       </c>
       <c r="F296" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -6077,7 +6077,7 @@
         <v>60</v>
       </c>
       <c r="F297" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -6093,7 +6093,7 @@
         <v>48</v>
       </c>
       <c r="F298" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
         <v>48</v>
       </c>
       <c r="F299" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>60</v>
       </c>
       <c r="F300" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>48</v>
       </c>
       <c r="F301" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -6157,7 +6157,7 @@
         <v>84</v>
       </c>
       <c r="F302" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5DA3D4-4268-8047-845B-669A91C37474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE188D8-CCE5-3D49-8C58-56E7890CEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -373,9 +373,6 @@
     <t>Mudmen</t>
   </si>
   <si>
-    <t>Knight &amp; Light</t>
-  </si>
-  <si>
     <t>Boulder Trench</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Knight &amp; Light (Black Knight / horse)</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1086,8 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F242" sqref="F242"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,19 +1099,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2845,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
@@ -2872,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
@@ -2899,7 +2899,7 @@
         <v>48</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
@@ -2926,7 +2926,7 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -2953,7 +2953,7 @@
         <v>84</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
@@ -2986,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
@@ -3013,7 +3013,7 @@
         <v>376</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
         <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
@@ -3067,7 +3067,7 @@
         <v>48</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="5">DEC2HEX(A67,4)</f>
@@ -3094,7 +3094,7 @@
         <v>72</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="5"/>
@@ -3121,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
@@ -3148,7 +3148,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
@@ -3181,7 +3181,7 @@
         <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
@@ -3208,7 +3208,7 @@
         <v>252</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="5"/>
@@ -3235,7 +3235,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="5"/>
@@ -3266,7 +3266,7 @@
         <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="5"/>
@@ -3303,7 +3303,7 @@
         <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="5"/>
@@ -3334,7 +3334,7 @@
         <v>300</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
@@ -3415,7 +3415,7 @@
         <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="5"/>
@@ -3448,7 +3448,7 @@
         <v>81</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="5"/>
@@ -3475,7 +3475,7 @@
         <v>500</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="5"/>
@@ -3502,7 +3502,7 @@
         <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="5"/>
@@ -3529,7 +3529,7 @@
         <v>48</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="5"/>
@@ -3556,7 +3556,7 @@
         <v>48</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="5"/>
@@ -3583,7 +3583,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="5"/>
@@ -3610,7 +3610,7 @@
         <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="5"/>
@@ -3637,7 +3637,7 @@
         <v>48</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="5"/>
@@ -3664,7 +3664,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="5"/>
@@ -3691,7 +3691,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="5"/>
@@ -3724,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
@@ -3751,7 +3751,7 @@
         <v>300</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="5"/>
@@ -3778,7 +3778,7 @@
         <v>36</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="5"/>
@@ -3805,7 +3805,7 @@
         <v>36</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="5"/>
@@ -3832,7 +3832,7 @@
         <v>48</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="5"/>
@@ -3859,7 +3859,7 @@
         <v>84</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="5"/>
@@ -3892,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="5"/>
@@ -3919,7 +3919,7 @@
         <v>264</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="5"/>
@@ -3946,7 +3946,7 @@
         <v>92</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="5"/>
@@ -3973,7 +3973,7 @@
         <v>52</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="5"/>
@@ -4000,7 +4000,7 @@
         <v>108</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="5"/>
@@ -4027,7 +4027,7 @@
         <v>84</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="5"/>
@@ -4060,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="5"/>
@@ -4087,7 +4087,7 @@
         <v>308</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="5"/>
@@ -4114,7 +4114,7 @@
         <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="5"/>
@@ -4141,7 +4141,7 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="5"/>
@@ -4168,7 +4168,7 @@
         <v>96</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="5"/>
@@ -4195,7 +4195,7 @@
         <v>84</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="5"/>
@@ -4228,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="5"/>
@@ -4255,7 +4255,7 @@
         <v>522</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="5"/>
@@ -4282,7 +4282,7 @@
         <v>36</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="5"/>
@@ -4309,7 +4309,7 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="5"/>
@@ -4336,7 +4336,7 @@
         <v>48</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="5"/>
@@ -4363,7 +4363,7 @@
         <v>52</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="5"/>
@@ -4390,7 +4390,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="5"/>
@@ -4417,7 +4417,7 @@
         <v>72</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="5"/>
@@ -4444,7 +4444,7 @@
         <v>84</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="5"/>
@@ -4477,7 +4477,7 @@
         <v>83</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="5"/>
@@ -4504,7 +4504,7 @@
         <v>510</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="5"/>
@@ -4531,7 +4531,7 @@
         <v>54</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="5"/>
@@ -4558,7 +4558,7 @@
         <v>84</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="5"/>
@@ -4585,7 +4585,7 @@
         <v>36</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="5"/>
@@ -4612,7 +4612,7 @@
         <v>84</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
@@ -4645,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="5"/>
@@ -4672,7 +4672,7 @@
         <v>216</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="5"/>
@@ -4699,7 +4699,7 @@
         <v>84</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="5"/>
@@ -4726,7 +4726,7 @@
         <v>84</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="5"/>
@@ -4759,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="5"/>
@@ -4786,7 +4786,7 @@
         <v>132</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="5"/>
@@ -4813,7 +4813,7 @@
         <v>48</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="5"/>
@@ -4840,7 +4840,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="5"/>
@@ -4867,7 +4867,7 @@
         <v>84</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G194" si="9">DEC2HEX(A131,4)</f>
@@ -4900,7 +4900,7 @@
         <v>21</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="9"/>
@@ -4927,7 +4927,7 @@
         <v>292</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="9"/>
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="9"/>
@@ -4981,7 +4981,7 @@
         <v>84</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="9"/>
@@ -5014,7 +5014,7 @@
         <v>84</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="9"/>
@@ -5041,7 +5041,7 @@
         <v>432</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="9"/>
@@ -5068,7 +5068,7 @@
         <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="9"/>
@@ -5095,7 +5095,7 @@
         <v>64</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="9"/>
@@ -5122,7 +5122,7 @@
         <v>36</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="9"/>
@@ -5149,7 +5149,7 @@
         <v>84</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="9"/>
@@ -5182,7 +5182,7 @@
         <v>85</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="9"/>
@@ -5209,7 +5209,7 @@
         <v>480</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="9"/>
@@ -5266,7 +5266,7 @@
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="9"/>
@@ -5293,7 +5293,7 @@
         <v>32</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="9"/>
@@ -5320,7 +5320,7 @@
         <v>84</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="9"/>
@@ -5353,7 +5353,7 @@
         <v>88</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="9"/>
@@ -5380,7 +5380,7 @@
         <v>392</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="9"/>
@@ -5407,7 +5407,7 @@
         <v>36</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="9"/>
@@ -5434,7 +5434,7 @@
         <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="9"/>
@@ -5461,7 +5461,7 @@
         <v>36</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="9"/>
@@ -5488,7 +5488,7 @@
         <v>71</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="9"/>
@@ -5515,7 +5515,7 @@
         <v>85</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="9"/>
@@ -5548,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="9"/>
@@ -5575,7 +5575,7 @@
         <v>288</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="9"/>
@@ -5602,7 +5602,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="9"/>
@@ -5629,7 +5629,7 @@
         <v>48</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="9"/>
@@ -5656,7 +5656,7 @@
         <v>84</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="9"/>
@@ -5689,7 +5689,7 @@
         <v>89</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="9"/>
@@ -5716,7 +5716,7 @@
         <v>300</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="9"/>
@@ -5797,7 +5797,7 @@
         <v>84</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="9"/>
@@ -5830,7 +5830,7 @@
         <v>90</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="9"/>
@@ -5857,7 +5857,7 @@
         <v>500</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="9"/>
@@ -5885,7 +5885,7 @@
         <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="9"/>
@@ -5913,7 +5913,7 @@
         <v>48</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="9"/>
@@ -5941,7 +5941,7 @@
         <v>48</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="9"/>
@@ -5969,7 +5969,7 @@
         <v>80</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="9"/>
@@ -5997,7 +5997,7 @@
         <v>36</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="9"/>
@@ -6025,7 +6025,7 @@
         <v>48</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="9"/>
@@ -6053,7 +6053,7 @@
         <v>60</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="9"/>
@@ -6081,7 +6081,7 @@
         <v>84</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="9"/>
@@ -6115,7 +6115,7 @@
         <v>25</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="9"/>
@@ -6143,7 +6143,7 @@
         <v>288</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="9"/>
@@ -6171,7 +6171,7 @@
         <v>36</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="9"/>
@@ -6199,7 +6199,7 @@
         <v>48</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="9"/>
@@ -6227,7 +6227,7 @@
         <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="9"/>
@@ -6255,7 +6255,7 @@
         <v>84</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="9"/>
@@ -6289,7 +6289,7 @@
         <v>91</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="9"/>
@@ -6317,7 +6317,7 @@
         <v>379</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="9"/>
@@ -6345,7 +6345,7 @@
         <v>80</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="9"/>
@@ -6373,7 +6373,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="9"/>
@@ -6457,7 +6457,7 @@
         <v>84</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="9"/>
@@ -6491,7 +6491,7 @@
         <v>94</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="9"/>
@@ -6519,7 +6519,7 @@
         <v>522</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="9"/>
@@ -6547,7 +6547,7 @@
         <v>36</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="9"/>
@@ -6575,7 +6575,7 @@
         <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="9"/>
@@ -6603,7 +6603,7 @@
         <v>48</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="9"/>
@@ -6631,7 +6631,7 @@
         <v>52</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="9"/>
@@ -6659,7 +6659,7 @@
         <v>24</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="9"/>
@@ -6687,7 +6687,7 @@
         <v>72</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" ref="G195:G258" si="14">DEC2HEX(A195,4)</f>
@@ -6715,7 +6715,7 @@
         <v>84</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="14"/>
@@ -6749,7 +6749,7 @@
         <v>95</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="14"/>
@@ -6777,7 +6777,7 @@
         <v>432</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="14"/>
@@ -6805,7 +6805,7 @@
         <v>48</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="14"/>
@@ -6833,7 +6833,7 @@
         <v>64</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="14"/>
@@ -6861,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="14"/>
@@ -6889,7 +6889,7 @@
         <v>84</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="14"/>
@@ -6923,7 +6923,7 @@
         <v>13</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="14"/>
@@ -6951,7 +6951,7 @@
         <v>772</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="14"/>
@@ -6979,7 +6979,7 @@
         <v>24</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="14"/>
@@ -7007,7 +7007,7 @@
         <v>82</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="14"/>
@@ -7035,7 +7035,7 @@
         <v>84</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="14"/>
@@ -7125,7 +7125,7 @@
         <v>108</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="14"/>
@@ -7153,7 +7153,7 @@
         <v>36</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="14"/>
@@ -7181,7 +7181,7 @@
         <v>84</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="14"/>
@@ -7215,7 +7215,7 @@
         <v>97</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="14"/>
@@ -7243,7 +7243,7 @@
         <v>391</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="14"/>
@@ -7271,7 +7271,7 @@
         <v>36</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="14"/>
@@ -7299,7 +7299,7 @@
         <v>24</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="14"/>
@@ -7327,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="14"/>
@@ -7355,7 +7355,7 @@
         <v>72</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="14"/>
@@ -7383,7 +7383,7 @@
         <v>84</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="14"/>
@@ -7417,7 +7417,7 @@
         <v>98</v>
       </c>
       <c r="F220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="14"/>
@@ -7445,7 +7445,7 @@
         <v>510</v>
       </c>
       <c r="F221" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="14"/>
@@ -7473,7 +7473,7 @@
         <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="14"/>
@@ -7501,7 +7501,7 @@
         <v>84</v>
       </c>
       <c r="F223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="14"/>
@@ -7529,7 +7529,7 @@
         <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="14"/>
@@ -7557,7 +7557,7 @@
         <v>84</v>
       </c>
       <c r="F225" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="14"/>
@@ -7647,7 +7647,7 @@
         <v>66</v>
       </c>
       <c r="F228" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="14"/>
@@ -7675,7 +7675,7 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="14"/>
@@ -7696,14 +7696,14 @@
         <v>20486</v>
       </c>
       <c r="B230">
-        <v>20535</v>
+        <v>20533</v>
       </c>
       <c r="C230">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="14"/>
@@ -7711,31 +7711,31 @@
       </c>
       <c r="H230" t="str">
         <f t="shared" si="15"/>
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="I230" t="str">
         <f t="shared" si="16"/>
-        <v>0032</v>
+        <v>0030</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="12"/>
-        <v>20536</v>
+        <v>20534</v>
       </c>
       <c r="B231">
         <v>20617</v>
       </c>
       <c r="C231">
         <f t="shared" si="13"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F231" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="14"/>
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="15"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="I231" t="str">
         <f t="shared" si="16"/>
-        <v>0052</v>
+        <v>0054</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -7821,7 +7821,7 @@
         <v>144</v>
       </c>
       <c r="F234" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="14"/>
@@ -7849,7 +7849,7 @@
         <v>84</v>
       </c>
       <c r="F235" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="14"/>
@@ -7883,7 +7883,7 @@
         <v>101</v>
       </c>
       <c r="F236" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="14"/>
@@ -7911,7 +7911,7 @@
         <v>480</v>
       </c>
       <c r="F237" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="14"/>
@@ -7970,7 +7970,7 @@
         <v>48</v>
       </c>
       <c r="F239" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="14"/>
@@ -7998,7 +7998,7 @@
         <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="14"/>
@@ -8026,7 +8026,7 @@
         <v>85</v>
       </c>
       <c r="F241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="14"/>
@@ -8060,7 +8060,7 @@
         <v>91</v>
       </c>
       <c r="F242" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="14"/>
@@ -8088,7 +8088,7 @@
         <v>379</v>
       </c>
       <c r="F243" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="14"/>
@@ -8116,7 +8116,7 @@
         <v>80</v>
       </c>
       <c r="F244" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="14"/>
@@ -8144,7 +8144,7 @@
         <v>60</v>
       </c>
       <c r="F245" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="14"/>
@@ -8228,7 +8228,7 @@
         <v>84</v>
       </c>
       <c r="F248" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="14"/>
@@ -8318,7 +8318,7 @@
         <v>24</v>
       </c>
       <c r="F251" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="14"/>
@@ -8346,7 +8346,7 @@
         <v>24</v>
       </c>
       <c r="F252" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="14"/>
@@ -8374,7 +8374,7 @@
         <v>24</v>
       </c>
       <c r="F253" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="14"/>
@@ -8402,7 +8402,7 @@
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="14"/>
@@ -8430,7 +8430,7 @@
         <v>60</v>
       </c>
       <c r="F255" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="14"/>
@@ -8458,7 +8458,7 @@
         <v>64</v>
       </c>
       <c r="F256" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="14"/>
@@ -8486,7 +8486,7 @@
         <v>80</v>
       </c>
       <c r="F257" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="14"/>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
-        <f t="shared" si="17"/>
+        <f>B257+1</f>
         <v>24238</v>
       </c>
       <c r="B258">
@@ -8514,7 +8514,7 @@
         <v>84</v>
       </c>
       <c r="F258" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="14"/>
@@ -8604,7 +8604,7 @@
         <v>24</v>
       </c>
       <c r="F261" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="19"/>
@@ -8632,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="F262" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="19"/>
@@ -8660,7 +8660,7 @@
         <v>48</v>
       </c>
       <c r="F263" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="19"/>
@@ -8688,7 +8688,7 @@
         <v>106</v>
       </c>
       <c r="F264" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="19"/>
@@ -8716,7 +8716,7 @@
         <v>60</v>
       </c>
       <c r="F265" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="19"/>
@@ -8744,7 +8744,7 @@
         <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="19"/>
@@ -8772,7 +8772,7 @@
         <v>84</v>
       </c>
       <c r="F267" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="19"/>
@@ -8806,7 +8806,7 @@
         <v>11</v>
       </c>
       <c r="F268" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="19"/>
@@ -8834,7 +8834,7 @@
         <v>313</v>
       </c>
       <c r="F269" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="19"/>
@@ -8862,7 +8862,7 @@
         <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="19"/>
@@ -8883,14 +8883,14 @@
         <v>25886</v>
       </c>
       <c r="B271">
-        <v>25957</v>
+        <v>25956</v>
       </c>
       <c r="C271">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F271" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="19"/>
@@ -8898,31 +8898,31 @@
       </c>
       <c r="H271" t="str">
         <f t="shared" si="20"/>
-        <v>6565</v>
+        <v>6564</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="21"/>
-        <v>0048</v>
+        <v>0047</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="17"/>
-        <v>25958</v>
+        <v>25957</v>
       </c>
       <c r="B272">
         <v>26041</v>
       </c>
       <c r="C272">
         <f t="shared" si="18"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F272" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="19"/>
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="H272" t="str">
         <f t="shared" si="20"/>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="I272" t="str">
         <f t="shared" si="21"/>
-        <v>0054</v>
+        <v>0055</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>9</v>
       </c>
       <c r="F273" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="19"/>
@@ -8980,7 +8980,7 @@
         <v>479</v>
       </c>
       <c r="F274" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G274" t="str">
         <f t="shared" si="19"/>
@@ -9001,14 +9001,14 @@
         <v>26578</v>
       </c>
       <c r="B275">
-        <v>26613</v>
+        <v>26612</v>
       </c>
       <c r="C275">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F275" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="19"/>
@@ -9016,35 +9016,35 @@
       </c>
       <c r="H275" t="str">
         <f t="shared" si="20"/>
-        <v>67F5</v>
+        <v>67F4</v>
       </c>
       <c r="I275" t="str">
         <f t="shared" si="21"/>
-        <v>0024</v>
+        <v>0023</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="17"/>
-        <v>26614</v>
+        <v>26613</v>
       </c>
       <c r="B276">
-        <v>26637</v>
+        <v>26636</v>
       </c>
       <c r="C276">
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F276" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="19"/>
-        <v>67F6</v>
+        <v>67F5</v>
       </c>
       <c r="H276" t="str">
         <f t="shared" si="20"/>
-        <v>680D</v>
+        <v>680C</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="21"/>
@@ -9054,42 +9054,42 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="17"/>
-        <v>26638</v>
+        <v>26637</v>
       </c>
       <c r="B277">
-        <v>26721</v>
+        <v>26722</v>
       </c>
       <c r="C277">
         <f t="shared" si="18"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F277" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G277" t="str">
         <f t="shared" si="19"/>
-        <v>680E</v>
+        <v>680D</v>
       </c>
       <c r="H277" t="str">
         <f t="shared" si="20"/>
-        <v>6861</v>
+        <v>6862</v>
       </c>
       <c r="I277" t="str">
         <f t="shared" si="21"/>
-        <v>0054</v>
+        <v>0056</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="17"/>
-        <v>26722</v>
+        <v>26723</v>
       </c>
       <c r="B278">
         <v>26778</v>
       </c>
       <c r="C278">
         <f t="shared" si="18"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D278" s="3">
         <v>36</v>
@@ -9098,11 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G278" t="str">
         <f t="shared" si="19"/>
-        <v>6862</v>
+        <v>6863</v>
       </c>
       <c r="H278" t="str">
         <f t="shared" si="20"/>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="I278" t="str">
         <f t="shared" si="21"/>
-        <v>0039</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -9126,7 +9126,7 @@
         <v>271</v>
       </c>
       <c r="F279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G279" t="str">
         <f t="shared" si="19"/>
@@ -9154,7 +9154,7 @@
         <v>36</v>
       </c>
       <c r="F280" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="19"/>
@@ -9182,7 +9182,7 @@
         <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G281" t="str">
         <f t="shared" si="19"/>
@@ -9210,7 +9210,7 @@
         <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G282" t="str">
         <f t="shared" si="19"/>
@@ -9238,7 +9238,7 @@
         <v>84</v>
       </c>
       <c r="F283" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="19"/>
@@ -9328,7 +9328,7 @@
         <v>24</v>
       </c>
       <c r="F286" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="19"/>
@@ -9356,7 +9356,7 @@
         <v>24</v>
       </c>
       <c r="F287" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="19"/>
@@ -9384,7 +9384,7 @@
         <v>24</v>
       </c>
       <c r="F288" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="19"/>
@@ -9412,7 +9412,7 @@
         <v>24</v>
       </c>
       <c r="F289" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="19"/>
@@ -9440,7 +9440,7 @@
         <v>60</v>
       </c>
       <c r="F290" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="19"/>
@@ -9468,7 +9468,7 @@
         <v>64</v>
       </c>
       <c r="F291" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="19"/>
@@ -9496,7 +9496,7 @@
         <v>80</v>
       </c>
       <c r="F292" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="19"/>
@@ -9524,7 +9524,7 @@
         <v>84</v>
       </c>
       <c r="F293" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="19"/>
@@ -9558,7 +9558,7 @@
         <v>29</v>
       </c>
       <c r="F294" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="19"/>
@@ -9586,7 +9586,7 @@
         <v>2251</v>
       </c>
       <c r="F295" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="19"/>
@@ -9614,7 +9614,7 @@
         <v>48</v>
       </c>
       <c r="F296" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="19"/>
@@ -9642,7 +9642,7 @@
         <v>60</v>
       </c>
       <c r="F297" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="19"/>
@@ -9670,7 +9670,7 @@
         <v>48</v>
       </c>
       <c r="F298" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="19"/>
@@ -9698,7 +9698,7 @@
         <v>48</v>
       </c>
       <c r="F299" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="19"/>
@@ -9726,7 +9726,7 @@
         <v>60</v>
       </c>
       <c r="F300" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="19"/>
@@ -9754,7 +9754,7 @@
         <v>48</v>
       </c>
       <c r="F301" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="19"/>
@@ -9782,7 +9782,7 @@
         <v>84</v>
       </c>
       <c r="F302" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="19"/>
@@ -9810,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="F303" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G303" t="str">
         <f t="shared" si="19"/>
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="F304" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="19"/>
@@ -9864,7 +9864,7 @@
         <v>60</v>
       </c>
       <c r="F305" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="19"/>
@@ -9884,7 +9884,7 @@
         <v>31735</v>
       </c>
       <c r="F306" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="19"/>
@@ -9920,16 +9920,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10155,7 +10155,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,Feuil1!E:I,3,FALSE)</f>
-        <v>6862</v>
+        <v>6863</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(A22,Feuil1!E:I,4,FALSE)</f>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(A22,Feuil1!E:I,5,FALSE)</f>
-        <v>0039</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -10364,7 +10364,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" t="e">
         <f>VLOOKUP(A30,Feuil1!E:I,3,FALSE)</f>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE188D8-CCE5-3D49-8C58-56E7890CEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE074B-9C9D-444F-8FA1-5E4846BF6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -1086,8 +1086,8 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3087,11 +3087,11 @@
         <v>2849</v>
       </c>
       <c r="B68">
-        <v>2920</v>
+        <v>2932</v>
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>148</v>
@@ -3102,57 +3102,59 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
-        <v>0B68</v>
+        <v>0B74</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="7"/>
-        <v>0048</v>
+        <v>0054</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2921</v>
+        <f>B68+1</f>
+        <v>2933</v>
       </c>
       <c r="B69">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
-        <v>0B69</v>
+        <v>0B75</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
-        <v>0B8C</v>
+        <v>0B8B</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="7"/>
-        <v>0024</v>
+        <v>0017</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2957</v>
+        <f>B69+1</f>
+        <v>2956</v>
       </c>
       <c r="B70">
         <v>3040</v>
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
-        <v>0B8D</v>
+        <v>0B8C</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
@@ -3160,19 +3162,20 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="7"/>
-        <v>0054</v>
+        <v>0055</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>3031</v>
+        <f>B70+1</f>
+        <v>3041</v>
       </c>
       <c r="B71">
         <v>3096</v>
       </c>
       <c r="C71">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -3185,7 +3188,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
-        <v>0BD7</v>
+        <v>0BE1</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
@@ -3193,7 +3196,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="7"/>
-        <v>0042</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10283,7 +10286,7 @@
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(A25,Feuil1!E:I,3,FALSE)</f>
-        <v>0BD7</v>
+        <v>0BE1</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(A25,Feuil1!E:I,4,FALSE)</f>
@@ -10291,7 +10294,7 @@
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(A25,Feuil1!E:I,5,FALSE)</f>
-        <v>0042</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE074B-9C9D-444F-8FA1-5E4846BF6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D92BB-5A78-934A-BF7A-E7B0EDBE13AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="222">
   <si>
     <t>D1</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>Knight &amp; Light (Black Knight / horse)</t>
+  </si>
+  <si>
+    <t>Elevator Floor (9 levels)</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1089,8 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4581,11 +4584,11 @@
         <v>8533</v>
       </c>
       <c r="B121">
-        <v>8568</v>
+        <v>8569</v>
       </c>
       <c r="C121">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>170</v>
@@ -4596,30 +4599,31 @@
       </c>
       <c r="H121" t="str">
         <f t="shared" si="6"/>
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="7"/>
-        <v>0024</v>
+        <v>0025</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>8569</v>
+        <f>B121+1</f>
+        <v>8570</v>
       </c>
       <c r="B122">
         <v>8652</v>
       </c>
       <c r="C122">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
-        <v>2179</v>
+        <v>217A</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="6"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="7"/>
-        <v>0054</v>
+        <v>0053</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -6683,11 +6687,11 @@
         <v>16332</v>
       </c>
       <c r="B195">
-        <v>16403</v>
+        <v>16404</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" si="13">B195-A195+1</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>167</v>
@@ -6698,31 +6702,31 @@
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H258" si="15">DEC2HEX(B195,4)</f>
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" ref="I195:I258" si="16">DEC2HEX(C195,4)</f>
-        <v>0048</v>
+        <v>0049</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="12"/>
-        <v>16404</v>
+        <v>16405</v>
       </c>
       <c r="B196">
         <v>16487</v>
       </c>
       <c r="C196">
         <f t="shared" si="13"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="14"/>
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="15"/>
@@ -6730,7 +6734,7 @@
       </c>
       <c r="I196" t="str">
         <f t="shared" si="16"/>
-        <v>0054</v>
+        <v>0053</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -8022,11 +8026,11 @@
         <v>21820</v>
       </c>
       <c r="B241">
-        <v>21904</v>
+        <v>21903</v>
       </c>
       <c r="C241">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F241" t="s">
         <v>142</v>
@@ -8037,37 +8041,37 @@
       </c>
       <c r="H241" t="str">
         <f t="shared" si="15"/>
-        <v>5590</v>
+        <v>558F</v>
       </c>
       <c r="I241" t="str">
         <f t="shared" si="16"/>
-        <v>0055</v>
+        <v>0054</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" si="17"/>
-        <v>21905</v>
+        <v>21904</v>
       </c>
       <c r="B242">
         <v>21958</v>
       </c>
       <c r="C242">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D242" s="3">
         <v>31</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="F242" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="14"/>
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="15"/>
@@ -8075,7 +8079,7 @@
       </c>
       <c r="I242" t="str">
         <f t="shared" si="16"/>
-        <v>0036</v>
+        <v>0037</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -8091,7 +8095,7 @@
         <v>379</v>
       </c>
       <c r="F243" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="14"/>
@@ -10369,17 +10373,17 @@
       <c r="A30" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30" t="str">
         <f>VLOOKUP(A30,Feuil1!E:I,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
+        <v>5590</v>
+      </c>
+      <c r="C30" t="str">
         <f>VLOOKUP(A30,Feuil1!E:I,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D30" t="e">
+        <v>55C6</v>
+      </c>
+      <c r="D30" t="str">
         <f>VLOOKUP(A30,Feuil1!E:I,5,FALSE)</f>
-        <v>#N/A</v>
+        <v>0037</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D92BB-5A78-934A-BF7A-E7B0EDBE13AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51677DB-1955-414B-8EAF-FEDD58E65A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
@@ -1089,8 +1089,8 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8800,11 +8800,11 @@
         <v>25480</v>
       </c>
       <c r="B268">
-        <v>25536</v>
+        <v>25535</v>
       </c>
       <c r="C268">
         <f t="shared" si="18"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D268" s="3">
         <v>34</v>
@@ -8821,31 +8821,31 @@
       </c>
       <c r="H268" t="str">
         <f t="shared" si="20"/>
-        <v>63C0</v>
+        <v>63BF</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="21"/>
-        <v>0039</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="17"/>
-        <v>25537</v>
+        <v>25536</v>
       </c>
       <c r="B269">
         <v>25849</v>
       </c>
       <c r="C269">
         <f t="shared" si="18"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F269" t="s">
         <v>220</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="19"/>
-        <v>63C1</v>
+        <v>63C0</v>
       </c>
       <c r="H269" t="str">
         <f t="shared" si="20"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I269" t="str">
         <f t="shared" si="21"/>
-        <v>0139</v>
+        <v>013A</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -10472,11 +10472,11 @@
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(A38,Feuil1!E:I,4,FALSE)</f>
-        <v>63C0</v>
+        <v>63BF</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(A38,Feuil1!E:I,5,FALSE)</f>
-        <v>0039</v>
+        <v>0038</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51677DB-1955-414B-8EAF-FEDD58E65A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F06A6C-5798-9C49-B8F1-488102C57C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
+    <workbookView xWindow="12480" yWindow="-20240" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>&lt;fin du disque&gt;</t>
   </si>
   <si>
-    <t>Chapel (reversed)</t>
-  </si>
-  <si>
     <t>Socker Boppers (Grim Reaper) (reversed)</t>
   </si>
   <si>
@@ -725,6 +722,9 @@
   </si>
   <si>
     <t>Elevator Floor (9 levels)</t>
+  </si>
+  <si>
+    <t>Chapel (Robot Knight / checkered floor) (reversed)</t>
   </si>
 </sst>
 </file>
@@ -1089,32 +1089,32 @@
   <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="105.5" customWidth="1"/>
+    <col min="6" max="6" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
@@ -2875,7 +2875,7 @@
         <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
@@ -2902,7 +2902,7 @@
         <v>48</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
@@ -2929,7 +2929,7 @@
         <v>80</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -2956,7 +2956,7 @@
         <v>84</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
@@ -2989,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
@@ -3016,7 +3016,7 @@
         <v>376</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
@@ -3043,7 +3043,7 @@
         <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
@@ -3070,7 +3070,7 @@
         <v>48</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="5">DEC2HEX(A67,4)</f>
@@ -3097,7 +3097,7 @@
         <v>84</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="5"/>
@@ -3125,7 +3125,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="5"/>
@@ -3153,7 +3153,7 @@
         <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="5"/>
@@ -3187,7 +3187,7 @@
         <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="5"/>
@@ -3214,7 +3214,7 @@
         <v>252</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="5"/>
@@ -3241,7 +3241,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="5"/>
@@ -3272,7 +3272,7 @@
         <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="5"/>
@@ -3309,7 +3309,7 @@
         <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="5"/>
@@ -3340,7 +3340,7 @@
         <v>300</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
@@ -3421,7 +3421,7 @@
         <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="5"/>
@@ -3454,7 +3454,7 @@
         <v>81</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="5"/>
@@ -3481,7 +3481,7 @@
         <v>500</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="5"/>
@@ -3508,7 +3508,7 @@
         <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="5"/>
@@ -3535,7 +3535,7 @@
         <v>48</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="5"/>
@@ -3562,7 +3562,7 @@
         <v>48</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="5"/>
@@ -3589,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="5"/>
@@ -3616,7 +3616,7 @@
         <v>36</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="5"/>
@@ -3643,7 +3643,7 @@
         <v>48</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="5"/>
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="5"/>
@@ -3697,7 +3697,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="5"/>
@@ -3730,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="5"/>
@@ -3757,7 +3757,7 @@
         <v>300</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="5"/>
@@ -3784,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="5"/>
@@ -3811,7 +3811,7 @@
         <v>36</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="5"/>
@@ -3838,7 +3838,7 @@
         <v>48</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="5"/>
@@ -3865,7 +3865,7 @@
         <v>84</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="5"/>
@@ -3898,7 +3898,7 @@
         <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="5"/>
@@ -3925,7 +3925,7 @@
         <v>264</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="5"/>
@@ -3952,7 +3952,7 @@
         <v>92</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="5"/>
@@ -3979,7 +3979,7 @@
         <v>52</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="5"/>
@@ -4006,7 +4006,7 @@
         <v>108</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="5"/>
@@ -4033,7 +4033,7 @@
         <v>84</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="5"/>
@@ -4066,7 +4066,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="5"/>
@@ -4093,7 +4093,7 @@
         <v>308</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="5"/>
@@ -4120,7 +4120,7 @@
         <v>48</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="5"/>
@@ -4147,7 +4147,7 @@
         <v>36</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="5"/>
@@ -4174,7 +4174,7 @@
         <v>96</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="5"/>
@@ -4201,7 +4201,7 @@
         <v>84</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="5"/>
@@ -4234,7 +4234,7 @@
         <v>82</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="5"/>
@@ -4261,7 +4261,7 @@
         <v>522</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="5"/>
@@ -4288,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="5"/>
@@ -4315,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="5"/>
@@ -4342,7 +4342,7 @@
         <v>48</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="5"/>
@@ -4369,7 +4369,7 @@
         <v>52</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="5"/>
@@ -4396,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="5"/>
@@ -4423,7 +4423,7 @@
         <v>72</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="5"/>
@@ -4450,7 +4450,7 @@
         <v>84</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="5"/>
@@ -4483,7 +4483,7 @@
         <v>83</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="5"/>
@@ -4510,7 +4510,7 @@
         <v>510</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="5"/>
@@ -4537,7 +4537,7 @@
         <v>54</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="5"/>
@@ -4564,7 +4564,7 @@
         <v>84</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="5"/>
@@ -4591,7 +4591,7 @@
         <v>37</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="5"/>
@@ -4619,7 +4619,7 @@
         <v>83</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="5"/>
@@ -4652,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="5"/>
@@ -4679,7 +4679,7 @@
         <v>216</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="5"/>
@@ -4706,7 +4706,7 @@
         <v>84</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="5"/>
@@ -4733,7 +4733,7 @@
         <v>84</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="5"/>
@@ -4766,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="5"/>
@@ -4793,7 +4793,7 @@
         <v>132</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="5"/>
@@ -4820,7 +4820,7 @@
         <v>48</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="5"/>
@@ -4847,7 +4847,7 @@
         <v>60</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="5"/>
@@ -4874,7 +4874,7 @@
         <v>84</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G194" si="9">DEC2HEX(A131,4)</f>
@@ -4907,7 +4907,7 @@
         <v>21</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="9"/>
@@ -4934,7 +4934,7 @@
         <v>292</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="9"/>
@@ -4961,7 +4961,7 @@
         <v>60</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="9"/>
@@ -4988,7 +4988,7 @@
         <v>84</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="9"/>
@@ -5021,7 +5021,7 @@
         <v>84</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="9"/>
@@ -5048,7 +5048,7 @@
         <v>432</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="9"/>
@@ -5075,7 +5075,7 @@
         <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="9"/>
@@ -5102,7 +5102,7 @@
         <v>64</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="9"/>
@@ -5129,7 +5129,7 @@
         <v>36</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="9"/>
@@ -5156,7 +5156,7 @@
         <v>84</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="9"/>
@@ -5189,7 +5189,7 @@
         <v>85</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="9"/>
@@ -5216,7 +5216,7 @@
         <v>480</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="9"/>
@@ -5273,7 +5273,7 @@
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="9"/>
@@ -5300,7 +5300,7 @@
         <v>32</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="9"/>
@@ -5327,7 +5327,7 @@
         <v>84</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="9"/>
@@ -5360,7 +5360,7 @@
         <v>88</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="9"/>
@@ -5387,7 +5387,7 @@
         <v>392</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="9"/>
@@ -5414,7 +5414,7 @@
         <v>36</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="9"/>
@@ -5441,7 +5441,7 @@
         <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="9"/>
@@ -5468,7 +5468,7 @@
         <v>36</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="9"/>
@@ -5495,7 +5495,7 @@
         <v>71</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="9"/>
@@ -5522,7 +5522,7 @@
         <v>85</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="9"/>
@@ -5555,7 +5555,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="9"/>
@@ -5582,7 +5582,7 @@
         <v>288</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="9"/>
@@ -5609,7 +5609,7 @@
         <v>60</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="9"/>
@@ -5636,7 +5636,7 @@
         <v>48</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="9"/>
@@ -5663,7 +5663,7 @@
         <v>84</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="9"/>
@@ -5696,7 +5696,7 @@
         <v>89</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="9"/>
@@ -5723,7 +5723,7 @@
         <v>300</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="9"/>
@@ -5804,7 +5804,7 @@
         <v>84</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="9"/>
@@ -5837,7 +5837,7 @@
         <v>90</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="9"/>
@@ -5864,7 +5864,7 @@
         <v>500</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="9"/>
@@ -5892,7 +5892,7 @@
         <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="9"/>
@@ -5920,7 +5920,7 @@
         <v>48</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="9"/>
@@ -5948,7 +5948,7 @@
         <v>48</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="9"/>
@@ -5976,7 +5976,7 @@
         <v>80</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="9"/>
@@ -6004,7 +6004,7 @@
         <v>36</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="9"/>
@@ -6032,7 +6032,7 @@
         <v>48</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="9"/>
@@ -6060,7 +6060,7 @@
         <v>60</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="9"/>
@@ -6088,7 +6088,7 @@
         <v>84</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="9"/>
@@ -6122,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="9"/>
@@ -6150,7 +6150,7 @@
         <v>288</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="9"/>
@@ -6178,7 +6178,7 @@
         <v>36</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="9"/>
@@ -6206,7 +6206,7 @@
         <v>48</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="9"/>
@@ -6234,7 +6234,7 @@
         <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="9"/>
@@ -6262,7 +6262,7 @@
         <v>84</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="9"/>
@@ -6296,7 +6296,7 @@
         <v>91</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="9"/>
@@ -6324,7 +6324,7 @@
         <v>379</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="9"/>
@@ -6352,7 +6352,7 @@
         <v>80</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="9"/>
@@ -6380,7 +6380,7 @@
         <v>60</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="9"/>
@@ -6464,7 +6464,7 @@
         <v>84</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="9"/>
@@ -6498,7 +6498,7 @@
         <v>94</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="9"/>
@@ -6526,7 +6526,7 @@
         <v>522</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="9"/>
@@ -6554,7 +6554,7 @@
         <v>36</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="9"/>
@@ -6582,7 +6582,7 @@
         <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="9"/>
@@ -6610,7 +6610,7 @@
         <v>48</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="9"/>
@@ -6638,7 +6638,7 @@
         <v>52</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="9"/>
@@ -6666,7 +6666,7 @@
         <v>24</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="9"/>
@@ -6694,7 +6694,7 @@
         <v>73</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" ref="G195:G258" si="14">DEC2HEX(A195,4)</f>
@@ -6722,7 +6722,7 @@
         <v>83</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="14"/>
@@ -6756,7 +6756,7 @@
         <v>95</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="14"/>
@@ -6784,7 +6784,7 @@
         <v>432</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="14"/>
@@ -6812,7 +6812,7 @@
         <v>48</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="14"/>
@@ -6840,7 +6840,7 @@
         <v>64</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="14"/>
@@ -6868,7 +6868,7 @@
         <v>36</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="14"/>
@@ -6896,7 +6896,7 @@
         <v>84</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="14"/>
@@ -6930,7 +6930,7 @@
         <v>13</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="14"/>
@@ -6958,7 +6958,7 @@
         <v>772</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="14"/>
@@ -6986,7 +6986,7 @@
         <v>24</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="14"/>
@@ -7014,7 +7014,7 @@
         <v>82</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="14"/>
@@ -7042,7 +7042,7 @@
         <v>84</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="14"/>
@@ -7132,7 +7132,7 @@
         <v>108</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="14"/>
@@ -7160,7 +7160,7 @@
         <v>36</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="14"/>
@@ -7188,7 +7188,7 @@
         <v>84</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="14"/>
@@ -7222,7 +7222,7 @@
         <v>97</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="14"/>
@@ -7250,7 +7250,7 @@
         <v>391</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="14"/>
@@ -7278,7 +7278,7 @@
         <v>36</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="14"/>
@@ -7306,7 +7306,7 @@
         <v>24</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="14"/>
@@ -7334,7 +7334,7 @@
         <v>36</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="14"/>
@@ -7362,7 +7362,7 @@
         <v>72</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="14"/>
@@ -7390,7 +7390,7 @@
         <v>84</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="14"/>
@@ -7424,7 +7424,7 @@
         <v>98</v>
       </c>
       <c r="F220" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="14"/>
@@ -7452,7 +7452,7 @@
         <v>510</v>
       </c>
       <c r="F221" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="14"/>
@@ -7480,7 +7480,7 @@
         <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="14"/>
@@ -7508,7 +7508,7 @@
         <v>84</v>
       </c>
       <c r="F223" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="14"/>
@@ -7536,7 +7536,7 @@
         <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="14"/>
@@ -7564,7 +7564,7 @@
         <v>84</v>
       </c>
       <c r="F225" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="14"/>
@@ -7654,7 +7654,7 @@
         <v>66</v>
       </c>
       <c r="F228" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="14"/>
@@ -7682,7 +7682,7 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="14"/>
@@ -7710,7 +7710,7 @@
         <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="14"/>
@@ -7738,7 +7738,7 @@
         <v>84</v>
       </c>
       <c r="F231" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="14"/>
@@ -7828,7 +7828,7 @@
         <v>144</v>
       </c>
       <c r="F234" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="14"/>
@@ -7856,7 +7856,7 @@
         <v>84</v>
       </c>
       <c r="F235" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="14"/>
@@ -7890,7 +7890,7 @@
         <v>101</v>
       </c>
       <c r="F236" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="14"/>
@@ -7918,7 +7918,7 @@
         <v>480</v>
       </c>
       <c r="F237" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="14"/>
@@ -7977,7 +7977,7 @@
         <v>48</v>
       </c>
       <c r="F239" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="14"/>
@@ -8005,7 +8005,7 @@
         <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="14"/>
@@ -8033,7 +8033,7 @@
         <v>84</v>
       </c>
       <c r="F241" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="14"/>
@@ -8064,10 +8064,10 @@
         <v>31</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F242" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="14"/>
@@ -8095,7 +8095,7 @@
         <v>379</v>
       </c>
       <c r="F243" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="14"/>
@@ -8123,7 +8123,7 @@
         <v>80</v>
       </c>
       <c r="F244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="14"/>
@@ -8151,7 +8151,7 @@
         <v>60</v>
       </c>
       <c r="F245" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="14"/>
@@ -8235,7 +8235,7 @@
         <v>84</v>
       </c>
       <c r="F248" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="14"/>
@@ -8325,7 +8325,7 @@
         <v>24</v>
       </c>
       <c r="F251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="14"/>
@@ -8353,7 +8353,7 @@
         <v>24</v>
       </c>
       <c r="F252" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="14"/>
@@ -8381,7 +8381,7 @@
         <v>24</v>
       </c>
       <c r="F253" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="14"/>
@@ -8409,7 +8409,7 @@
         <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="14"/>
@@ -8437,7 +8437,7 @@
         <v>60</v>
       </c>
       <c r="F255" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="14"/>
@@ -8465,7 +8465,7 @@
         <v>64</v>
       </c>
       <c r="F256" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="14"/>
@@ -8493,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="F257" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="14"/>
@@ -8521,7 +8521,7 @@
         <v>84</v>
       </c>
       <c r="F258" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="14"/>
@@ -8611,7 +8611,7 @@
         <v>24</v>
       </c>
       <c r="F261" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="19"/>
@@ -8639,7 +8639,7 @@
         <v>24</v>
       </c>
       <c r="F262" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="19"/>
@@ -8667,7 +8667,7 @@
         <v>48</v>
       </c>
       <c r="F263" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="19"/>
@@ -8695,7 +8695,7 @@
         <v>106</v>
       </c>
       <c r="F264" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="19"/>
@@ -8723,7 +8723,7 @@
         <v>60</v>
       </c>
       <c r="F265" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="19"/>
@@ -8751,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="19"/>
@@ -8779,7 +8779,7 @@
         <v>84</v>
       </c>
       <c r="F267" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="19"/>
@@ -8813,7 +8813,7 @@
         <v>11</v>
       </c>
       <c r="F268" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="19"/>
@@ -8841,7 +8841,7 @@
         <v>314</v>
       </c>
       <c r="F269" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="19"/>
@@ -8869,7 +8869,7 @@
         <v>36</v>
       </c>
       <c r="F270" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="19"/>
@@ -8897,7 +8897,7 @@
         <v>71</v>
       </c>
       <c r="F271" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="19"/>
@@ -8925,7 +8925,7 @@
         <v>85</v>
       </c>
       <c r="F272" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="19"/>
@@ -9015,7 +9015,7 @@
         <v>35</v>
       </c>
       <c r="F275" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="19"/>
@@ -9043,7 +9043,7 @@
         <v>24</v>
       </c>
       <c r="F276" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="19"/>
@@ -9071,7 +9071,7 @@
         <v>86</v>
       </c>
       <c r="F277" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G277" t="str">
         <f t="shared" si="19"/>
@@ -9161,7 +9161,7 @@
         <v>36</v>
       </c>
       <c r="F280" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="19"/>
@@ -9189,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G281" t="str">
         <f t="shared" si="19"/>
@@ -9217,7 +9217,7 @@
         <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G282" t="str">
         <f t="shared" si="19"/>
@@ -9245,7 +9245,7 @@
         <v>84</v>
       </c>
       <c r="F283" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="19"/>
@@ -9335,7 +9335,7 @@
         <v>24</v>
       </c>
       <c r="F286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="19"/>
@@ -9363,7 +9363,7 @@
         <v>24</v>
       </c>
       <c r="F287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="19"/>
@@ -9391,7 +9391,7 @@
         <v>24</v>
       </c>
       <c r="F288" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="19"/>
@@ -9419,7 +9419,7 @@
         <v>24</v>
       </c>
       <c r="F289" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="19"/>
@@ -9447,7 +9447,7 @@
         <v>60</v>
       </c>
       <c r="F290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="19"/>
@@ -9475,7 +9475,7 @@
         <v>64</v>
       </c>
       <c r="F291" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="19"/>
@@ -9503,7 +9503,7 @@
         <v>80</v>
       </c>
       <c r="F292" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="19"/>
@@ -9531,7 +9531,7 @@
         <v>84</v>
       </c>
       <c r="F293" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="19"/>
@@ -9621,7 +9621,7 @@
         <v>48</v>
       </c>
       <c r="F296" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="19"/>
@@ -9649,7 +9649,7 @@
         <v>60</v>
       </c>
       <c r="F297" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="19"/>
@@ -9677,7 +9677,7 @@
         <v>48</v>
       </c>
       <c r="F298" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="19"/>
@@ -9705,7 +9705,7 @@
         <v>48</v>
       </c>
       <c r="F299" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="19"/>
@@ -9733,7 +9733,7 @@
         <v>60</v>
       </c>
       <c r="F300" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="19"/>
@@ -9761,7 +9761,7 @@
         <v>48</v>
       </c>
       <c r="F301" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="19"/>
@@ -9789,7 +9789,7 @@
         <v>84</v>
       </c>
       <c r="F302" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="19"/>
@@ -9927,16 +9927,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10162,7 +10162,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -10371,7 +10371,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(A30,Feuil1!E:I,3,FALSE)</f>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">

--- a/dlld/Dragon's Lair Frames.xlsx
+++ b/dlld/Dragon's Lair Frames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/dlld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F06A6C-5798-9C49-B8F1-488102C57C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4504241-761F-B740-B83C-679433FC86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-20240" windowWidth="28040" windowHeight="16940" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9E1B6290-4D45-9D45-A7B1-6A7CD5CDAB52}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1088,16 +1088,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4097F233-F6A6-A146-8BB1-95059BAB8AD4}">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="G180"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="56.1640625" customWidth="1"/>
+    <col min="6" max="6" width="161.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2050,7 +2050,7 @@
         <v>0003</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>244</v>
       </c>
